--- a/tests/advanced/randomized_tests/mazeprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/mazeprocessed_rand_results_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="71">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
@@ -102,6 +102,126 @@
   </si>
   <si>
     <t>run 9</t>
+  </si>
+  <si>
+    <t>run 10</t>
+  </si>
+  <si>
+    <t>run 11</t>
+  </si>
+  <si>
+    <t>run 12</t>
+  </si>
+  <si>
+    <t>run 13</t>
+  </si>
+  <si>
+    <t>run 14</t>
+  </si>
+  <si>
+    <t>run 15</t>
+  </si>
+  <si>
+    <t>run 16</t>
+  </si>
+  <si>
+    <t>run 17</t>
+  </si>
+  <si>
+    <t>run 18</t>
+  </si>
+  <si>
+    <t>run 19</t>
+  </si>
+  <si>
+    <t>run 20</t>
+  </si>
+  <si>
+    <t>run 21</t>
+  </si>
+  <si>
+    <t>run 22</t>
+  </si>
+  <si>
+    <t>run 23</t>
+  </si>
+  <si>
+    <t>run 24</t>
+  </si>
+  <si>
+    <t>run 25</t>
+  </si>
+  <si>
+    <t>run 26</t>
+  </si>
+  <si>
+    <t>run 27</t>
+  </si>
+  <si>
+    <t>run 28</t>
+  </si>
+  <si>
+    <t>run 29</t>
+  </si>
+  <si>
+    <t>run 30</t>
+  </si>
+  <si>
+    <t>run 31</t>
+  </si>
+  <si>
+    <t>run 32</t>
+  </si>
+  <si>
+    <t>run 33</t>
+  </si>
+  <si>
+    <t>run 34</t>
+  </si>
+  <si>
+    <t>run 35</t>
+  </si>
+  <si>
+    <t>run 36</t>
+  </si>
+  <si>
+    <t>run 37</t>
+  </si>
+  <si>
+    <t>run 38</t>
+  </si>
+  <si>
+    <t>run 39</t>
+  </si>
+  <si>
+    <t>run 40</t>
+  </si>
+  <si>
+    <t>run 41</t>
+  </si>
+  <si>
+    <t>run 42</t>
+  </si>
+  <si>
+    <t>run 43</t>
+  </si>
+  <si>
+    <t>run 44</t>
+  </si>
+  <si>
+    <t>run 45</t>
+  </si>
+  <si>
+    <t>run 46</t>
+  </si>
+  <si>
+    <t>run 47</t>
+  </si>
+  <si>
+    <t>run 48</t>
+  </si>
+  <si>
+    <t>run 49</t>
   </si>
   <si>
     <t>Average</t>
@@ -465,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>244.222</v>
+        <v>188.942</v>
       </c>
       <c r="C2">
-        <v>244.222</v>
+        <v>188.942</v>
       </c>
       <c r="D2">
-        <v>244.222</v>
+        <v>188.942</v>
       </c>
       <c r="E2">
-        <v>244.222</v>
+        <v>188.942</v>
       </c>
       <c r="F2">
-        <v>244.222</v>
+        <v>188.942</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -543,19 +663,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>269.05</v>
+        <v>98.59199999999997</v>
       </c>
       <c r="C3">
-        <v>269.05</v>
+        <v>98.59199999999997</v>
       </c>
       <c r="D3">
-        <v>269.05</v>
+        <v>98.59199999999997</v>
       </c>
       <c r="E3">
-        <v>269.05</v>
+        <v>98.59199999999997</v>
       </c>
       <c r="F3">
-        <v>269.05</v>
+        <v>98.59199999999997</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -578,19 +698,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>224.98</v>
+        <v>130.56</v>
       </c>
       <c r="C4">
-        <v>224.98</v>
+        <v>130.56</v>
       </c>
       <c r="D4">
-        <v>224.98</v>
+        <v>130.56</v>
       </c>
       <c r="E4">
-        <v>224.98</v>
+        <v>130.56</v>
       </c>
       <c r="F4">
-        <v>224.98</v>
+        <v>130.56</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -613,19 +733,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>252.3940000000001</v>
+        <v>171.114</v>
       </c>
       <c r="C5">
-        <v>252.3940000000001</v>
+        <v>171.114</v>
       </c>
       <c r="D5">
-        <v>252.3940000000001</v>
+        <v>171.114</v>
       </c>
       <c r="E5">
-        <v>252.3940000000001</v>
+        <v>171.114</v>
       </c>
       <c r="F5">
-        <v>252.3940000000001</v>
+        <v>171.114</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -648,19 +768,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>287.604</v>
+        <v>176.286</v>
       </c>
       <c r="C6">
-        <v>287.604</v>
+        <v>176.286</v>
       </c>
       <c r="D6">
-        <v>287.604</v>
+        <v>176.2859999999999</v>
       </c>
       <c r="E6">
-        <v>287.604</v>
+        <v>176.286</v>
       </c>
       <c r="F6">
-        <v>287.604</v>
+        <v>176.286</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -683,19 +803,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>233.05</v>
+        <v>156.216</v>
       </c>
       <c r="C7">
-        <v>233.05</v>
+        <v>156.216</v>
       </c>
       <c r="D7">
-        <v>233.05</v>
+        <v>156.216</v>
       </c>
       <c r="E7">
-        <v>233.05</v>
+        <v>156.216</v>
       </c>
       <c r="F7">
-        <v>233.05</v>
+        <v>156.216</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -718,19 +838,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>251.776</v>
+        <v>195.184</v>
       </c>
       <c r="C8">
-        <v>251.776</v>
+        <v>195.184</v>
       </c>
       <c r="D8">
-        <v>251.776</v>
+        <v>195.184</v>
       </c>
       <c r="E8">
-        <v>251.776</v>
+        <v>195.184</v>
       </c>
       <c r="F8">
-        <v>251.776</v>
+        <v>195.184</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -753,19 +873,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>248.808</v>
+        <v>169.872</v>
       </c>
       <c r="C9">
-        <v>248.808</v>
+        <v>169.872</v>
       </c>
       <c r="D9">
-        <v>248.808</v>
+        <v>169.872</v>
       </c>
       <c r="E9">
-        <v>248.808</v>
+        <v>169.872</v>
       </c>
       <c r="F9">
-        <v>248.808</v>
+        <v>169.872</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -788,19 +908,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>252.324</v>
+        <v>186.012</v>
       </c>
       <c r="C10">
-        <v>252.324</v>
+        <v>186.012</v>
       </c>
       <c r="D10">
-        <v>252.324</v>
+        <v>186.012</v>
       </c>
       <c r="E10">
-        <v>252.324</v>
+        <v>186.012</v>
       </c>
       <c r="F10">
-        <v>252.324</v>
+        <v>186.012</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -823,19 +943,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>224.152</v>
+        <v>179.114</v>
       </c>
       <c r="C11">
-        <v>224.152</v>
+        <v>179.114</v>
       </c>
       <c r="D11">
-        <v>224.152</v>
+        <v>179.114</v>
       </c>
       <c r="E11">
-        <v>224.152</v>
+        <v>179.114</v>
       </c>
       <c r="F11">
-        <v>224.152</v>
+        <v>179.114</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -850,6 +970,1406 @@
         <v>0</v>
       </c>
       <c r="K11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>198.324</v>
+      </c>
+      <c r="C12">
+        <v>198.324</v>
+      </c>
+      <c r="D12">
+        <v>198.324</v>
+      </c>
+      <c r="E12">
+        <v>198.324</v>
+      </c>
+      <c r="F12">
+        <v>198.324</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>168.286</v>
+      </c>
+      <c r="C13">
+        <v>168.286</v>
+      </c>
+      <c r="D13">
+        <v>168.286</v>
+      </c>
+      <c r="E13">
+        <v>168.286</v>
+      </c>
+      <c r="F13">
+        <v>168.286</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>172.528</v>
+      </c>
+      <c r="C14">
+        <v>172.528</v>
+      </c>
+      <c r="D14">
+        <v>172.528</v>
+      </c>
+      <c r="E14">
+        <v>172.528</v>
+      </c>
+      <c r="F14">
+        <v>172.528</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>164.286</v>
+      </c>
+      <c r="C15">
+        <v>164.286</v>
+      </c>
+      <c r="D15">
+        <v>164.286</v>
+      </c>
+      <c r="E15">
+        <v>164.286</v>
+      </c>
+      <c r="F15">
+        <v>164.286</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>153.216</v>
+      </c>
+      <c r="C16">
+        <v>153.216</v>
+      </c>
+      <c r="D16">
+        <v>153.216</v>
+      </c>
+      <c r="E16">
+        <v>153.216</v>
+      </c>
+      <c r="F16">
+        <v>153.216</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>146.63</v>
+      </c>
+      <c r="C17">
+        <v>146.63</v>
+      </c>
+      <c r="D17">
+        <v>146.63</v>
+      </c>
+      <c r="E17">
+        <v>146.63</v>
+      </c>
+      <c r="F17">
+        <v>146.63</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>182.528</v>
+      </c>
+      <c r="C18">
+        <v>182.528</v>
+      </c>
+      <c r="D18">
+        <v>182.528</v>
+      </c>
+      <c r="E18">
+        <v>182.528</v>
+      </c>
+      <c r="F18">
+        <v>182.528</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>150.63</v>
+      </c>
+      <c r="C19">
+        <v>150.63</v>
+      </c>
+      <c r="D19">
+        <v>150.63</v>
+      </c>
+      <c r="E19">
+        <v>150.63</v>
+      </c>
+      <c r="F19">
+        <v>150.63</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>159.216</v>
+      </c>
+      <c r="C20">
+        <v>159.216</v>
+      </c>
+      <c r="D20">
+        <v>159.216</v>
+      </c>
+      <c r="E20">
+        <v>159.216</v>
+      </c>
+      <c r="F20">
+        <v>159.216</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>165.356</v>
+      </c>
+      <c r="C21">
+        <v>165.356</v>
+      </c>
+      <c r="D21">
+        <v>165.356</v>
+      </c>
+      <c r="E21">
+        <v>165.356</v>
+      </c>
+      <c r="F21">
+        <v>165.356</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>198.496</v>
+      </c>
+      <c r="C22">
+        <v>198.496</v>
+      </c>
+      <c r="D22">
+        <v>198.496</v>
+      </c>
+      <c r="E22">
+        <v>198.496</v>
+      </c>
+      <c r="F22">
+        <v>198.496</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>163.184</v>
+      </c>
+      <c r="C23">
+        <v>163.184</v>
+      </c>
+      <c r="D23">
+        <v>163.184</v>
+      </c>
+      <c r="E23">
+        <v>163.184</v>
+      </c>
+      <c r="F23">
+        <v>163.184</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>148.146</v>
+      </c>
+      <c r="C24">
+        <v>148.146</v>
+      </c>
+      <c r="D24">
+        <v>148.146</v>
+      </c>
+      <c r="E24">
+        <v>148.146</v>
+      </c>
+      <c r="F24">
+        <v>148.146</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>178.77</v>
+      </c>
+      <c r="C25">
+        <v>178.77</v>
+      </c>
+      <c r="D25">
+        <v>178.77</v>
+      </c>
+      <c r="E25">
+        <v>178.77</v>
+      </c>
+      <c r="F25">
+        <v>178.77</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>226.496</v>
+      </c>
+      <c r="C26">
+        <v>226.496</v>
+      </c>
+      <c r="D26">
+        <v>226.496</v>
+      </c>
+      <c r="E26">
+        <v>226.496</v>
+      </c>
+      <c r="F26">
+        <v>226.496</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>170.356</v>
+      </c>
+      <c r="C27">
+        <v>170.356</v>
+      </c>
+      <c r="D27">
+        <v>170.356</v>
+      </c>
+      <c r="E27">
+        <v>170.356</v>
+      </c>
+      <c r="F27">
+        <v>170.356</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>146.974</v>
+      </c>
+      <c r="C28">
+        <v>146.974</v>
+      </c>
+      <c r="D28">
+        <v>146.974</v>
+      </c>
+      <c r="E28">
+        <v>146.974</v>
+      </c>
+      <c r="F28">
+        <v>146.974</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>147.388</v>
+      </c>
+      <c r="C29">
+        <v>147.388</v>
+      </c>
+      <c r="D29">
+        <v>147.388</v>
+      </c>
+      <c r="E29">
+        <v>147.388</v>
+      </c>
+      <c r="F29">
+        <v>147.388</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>152.216</v>
+      </c>
+      <c r="C30">
+        <v>152.216</v>
+      </c>
+      <c r="D30">
+        <v>152.216</v>
+      </c>
+      <c r="E30">
+        <v>152.216</v>
+      </c>
+      <c r="F30">
+        <v>152.216</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>127.732</v>
+      </c>
+      <c r="C31">
+        <v>127.732</v>
+      </c>
+      <c r="D31">
+        <v>127.732</v>
+      </c>
+      <c r="E31">
+        <v>127.732</v>
+      </c>
+      <c r="F31">
+        <v>127.732</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>145.974</v>
+      </c>
+      <c r="C32">
+        <v>145.974</v>
+      </c>
+      <c r="D32">
+        <v>145.974</v>
+      </c>
+      <c r="E32">
+        <v>145.974</v>
+      </c>
+      <c r="F32">
+        <v>145.974</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>163.114</v>
+      </c>
+      <c r="C33">
+        <v>163.114</v>
+      </c>
+      <c r="D33">
+        <v>163.114</v>
+      </c>
+      <c r="E33">
+        <v>163.114</v>
+      </c>
+      <c r="F33">
+        <v>163.114</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>147.388</v>
+      </c>
+      <c r="C34">
+        <v>147.388</v>
+      </c>
+      <c r="D34">
+        <v>147.388</v>
+      </c>
+      <c r="E34">
+        <v>147.388</v>
+      </c>
+      <c r="F34">
+        <v>147.388</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>144.802</v>
+      </c>
+      <c r="C35">
+        <v>144.802</v>
+      </c>
+      <c r="D35">
+        <v>144.802</v>
+      </c>
+      <c r="E35">
+        <v>144.802</v>
+      </c>
+      <c r="F35">
+        <v>144.802</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>193.184</v>
+      </c>
+      <c r="C36">
+        <v>193.184</v>
+      </c>
+      <c r="D36">
+        <v>193.184</v>
+      </c>
+      <c r="E36">
+        <v>193.184</v>
+      </c>
+      <c r="F36">
+        <v>193.184</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>164.216</v>
+      </c>
+      <c r="C37">
+        <v>164.216</v>
+      </c>
+      <c r="D37">
+        <v>164.216</v>
+      </c>
+      <c r="E37">
+        <v>164.216</v>
+      </c>
+      <c r="F37">
+        <v>164.216</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>176.942</v>
+      </c>
+      <c r="C38">
+        <v>176.942</v>
+      </c>
+      <c r="D38">
+        <v>176.942</v>
+      </c>
+      <c r="E38">
+        <v>176.942</v>
+      </c>
+      <c r="F38">
+        <v>176.942</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>143.49</v>
+      </c>
+      <c r="C39">
+        <v>143.49</v>
+      </c>
+      <c r="D39">
+        <v>143.49</v>
+      </c>
+      <c r="E39">
+        <v>143.49</v>
+      </c>
+      <c r="F39">
+        <v>143.49</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>200.77</v>
+      </c>
+      <c r="C40">
+        <v>200.77</v>
+      </c>
+      <c r="D40">
+        <v>200.77</v>
+      </c>
+      <c r="E40">
+        <v>200.77</v>
+      </c>
+      <c r="F40">
+        <v>200.77</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>185.528</v>
+      </c>
+      <c r="C41">
+        <v>185.528</v>
+      </c>
+      <c r="D41">
+        <v>185.528</v>
+      </c>
+      <c r="E41">
+        <v>185.528</v>
+      </c>
+      <c r="F41">
+        <v>185.528</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>191.426</v>
+      </c>
+      <c r="C42">
+        <v>191.426</v>
+      </c>
+      <c r="D42">
+        <v>191.426</v>
+      </c>
+      <c r="E42">
+        <v>191.426</v>
+      </c>
+      <c r="F42">
+        <v>191.426</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>157.146</v>
+      </c>
+      <c r="C43">
+        <v>157.146</v>
+      </c>
+      <c r="D43">
+        <v>157.146</v>
+      </c>
+      <c r="E43">
+        <v>157.146</v>
+      </c>
+      <c r="F43">
+        <v>157.146</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>215.496</v>
+      </c>
+      <c r="C44">
+        <v>215.496</v>
+      </c>
+      <c r="D44">
+        <v>215.496</v>
+      </c>
+      <c r="E44">
+        <v>215.496</v>
+      </c>
+      <c r="F44">
+        <v>215.496</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>143.56</v>
+      </c>
+      <c r="C45">
+        <v>143.56</v>
+      </c>
+      <c r="D45">
+        <v>143.56</v>
+      </c>
+      <c r="E45">
+        <v>143.56</v>
+      </c>
+      <c r="F45">
+        <v>143.56</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>193.114</v>
+      </c>
+      <c r="C46">
+        <v>193.114</v>
+      </c>
+      <c r="D46">
+        <v>193.114</v>
+      </c>
+      <c r="E46">
+        <v>193.114</v>
+      </c>
+      <c r="F46">
+        <v>193.114</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>178.496</v>
+      </c>
+      <c r="C47">
+        <v>178.496</v>
+      </c>
+      <c r="D47">
+        <v>178.496</v>
+      </c>
+      <c r="E47">
+        <v>178.496</v>
+      </c>
+      <c r="F47">
+        <v>178.496</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>175.7</v>
+      </c>
+      <c r="C48">
+        <v>175.7</v>
+      </c>
+      <c r="D48">
+        <v>175.7</v>
+      </c>
+      <c r="E48">
+        <v>175.7</v>
+      </c>
+      <c r="F48">
+        <v>175.7</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>180.114</v>
+      </c>
+      <c r="C49">
+        <v>180.114</v>
+      </c>
+      <c r="D49">
+        <v>180.114</v>
+      </c>
+      <c r="E49">
+        <v>180.114</v>
+      </c>
+      <c r="F49">
+        <v>180.114</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>146.114</v>
+      </c>
+      <c r="C50">
+        <v>146.114</v>
+      </c>
+      <c r="D50">
+        <v>146.114</v>
+      </c>
+      <c r="E50">
+        <v>146.114</v>
+      </c>
+      <c r="F50">
+        <v>146.114</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>167.356</v>
+      </c>
+      <c r="C51">
+        <v>167.356</v>
+      </c>
+      <c r="D51">
+        <v>167.356</v>
+      </c>
+      <c r="E51">
+        <v>167.356</v>
+      </c>
+      <c r="F51">
+        <v>167.356</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -860,7 +2380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K256"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -903,31 +2423,31 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="D2">
-        <v>0.0007159645901992917</v>
+        <v>0.0005769667914137244</v>
       </c>
       <c r="E2">
-        <v>0.317467735032551</v>
+        <v>0.249028068035841</v>
       </c>
       <c r="F2">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="G2">
-        <v>0.02396805747412145</v>
+        <v>0.02055890636984259</v>
       </c>
       <c r="H2">
-        <v>0.1653517683735117</v>
+        <v>0.1581032200483605</v>
       </c>
       <c r="I2">
-        <v>0.02888433530461043</v>
+        <v>0.008093542070128024</v>
       </c>
       <c r="J2">
-        <v>0.06968419963959605</v>
+        <v>0.03336968750227243</v>
       </c>
       <c r="K2">
-        <v>0.007393145351670682</v>
+        <v>0.007134879473596811</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -936,31 +2456,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>658</v>
+        <v>885</v>
       </c>
       <c r="D3">
-        <v>0.03921758732758462</v>
+        <v>0.02331999270245433</v>
       </c>
       <c r="E3">
-        <v>0.4232071740552783</v>
+        <v>0.4008415400749072</v>
       </c>
       <c r="F3">
-        <v>658</v>
+        <v>885</v>
       </c>
       <c r="G3">
-        <v>0.02498005784582347</v>
+        <v>0.03047250455711037</v>
       </c>
       <c r="H3">
-        <v>0.2233826897572726</v>
+        <v>0.2623375336406752</v>
       </c>
       <c r="I3">
-        <v>0.05357135680969805</v>
+        <v>0.01371775742154568</v>
       </c>
       <c r="J3">
-        <v>0.08942046633455902</v>
+        <v>0.05023334641009569</v>
       </c>
       <c r="K3">
-        <v>0.007888104300945997</v>
+        <v>0.01068698184099048</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -969,31 +2489,31 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>775</v>
+        <v>701</v>
       </c>
       <c r="D4">
-        <v>0.04314049880485982</v>
+        <v>0.01546598062850535</v>
       </c>
       <c r="E4">
-        <v>0.4956822689855471</v>
+        <v>0.2838456620229408</v>
       </c>
       <c r="F4">
-        <v>775</v>
+        <v>701</v>
       </c>
       <c r="G4">
-        <v>0.02987265924457461</v>
+        <v>0.0214414787478745</v>
       </c>
       <c r="H4">
-        <v>0.2562930771382526</v>
+        <v>0.1818467605626211</v>
       </c>
       <c r="I4">
-        <v>0.06571811018511653</v>
+        <v>0.008306834613904357</v>
       </c>
       <c r="J4">
-        <v>0.1064647112507373</v>
+        <v>0.04114674997981638</v>
       </c>
       <c r="K4">
-        <v>0.009384894976392388</v>
+        <v>0.007663967786356807</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1002,43 +2522,43 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="D5">
-        <v>0.001428152667358518</v>
+        <v>0.0008018489461392164</v>
       </c>
       <c r="E5">
-        <v>0.459663436980918</v>
+        <v>0.2382241199957207</v>
       </c>
       <c r="F5">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="G5">
-        <v>0.03398017201106995</v>
+        <v>0.01937849971000105</v>
       </c>
       <c r="H5">
-        <v>0.2353325081057847</v>
+        <v>0.1506437018979341</v>
       </c>
       <c r="I5">
-        <v>0.04544331331271678</v>
+        <v>0.008135442622005939</v>
       </c>
       <c r="J5">
-        <v>0.1014282995602116</v>
+        <v>0.03166541736572981</v>
       </c>
       <c r="K5">
-        <v>0.01067619735840708</v>
+        <v>0.007012156886048615</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>29970</v>
+        <v>8658</v>
       </c>
       <c r="E6">
-        <v>5.571763732586987</v>
+        <v>1.568686816492118</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1049,31 +2569,31 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>654</v>
+        <v>296</v>
       </c>
       <c r="D7">
-        <v>0.0008013861952349544</v>
+        <v>0.0002547389594838023</v>
       </c>
       <c r="E7">
-        <v>0.3758563350420445</v>
+        <v>0.1141735969576985</v>
       </c>
       <c r="F7">
-        <v>654</v>
+        <v>296</v>
       </c>
       <c r="G7">
-        <v>0.02759811212308705</v>
+        <v>0.009139096713624895</v>
       </c>
       <c r="H7">
-        <v>0.1965831283014268</v>
+        <v>0.07025590364355594</v>
       </c>
       <c r="I7">
-        <v>0.03369124559685588</v>
+        <v>0.005031491164118052</v>
       </c>
       <c r="J7">
-        <v>0.0830387135501951</v>
+        <v>0.01657795812934637</v>
       </c>
       <c r="K7">
-        <v>0.008726979955099523</v>
+        <v>0.00325482280459255</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1082,31 +2602,31 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>729</v>
+        <v>318</v>
       </c>
       <c r="D8">
-        <v>0.04377151932567358</v>
+        <v>0.008244707132689655</v>
       </c>
       <c r="E8">
-        <v>0.4776686079567298</v>
+        <v>0.1333281279075891</v>
       </c>
       <c r="F8">
-        <v>729</v>
+        <v>318</v>
       </c>
       <c r="G8">
-        <v>0.02868963498622179</v>
+        <v>0.009695667307823896</v>
       </c>
       <c r="H8">
-        <v>0.2578198089031503</v>
+        <v>0.08465963846538216</v>
       </c>
       <c r="I8">
-        <v>0.05610219819936901</v>
+        <v>0.005333978217095137</v>
       </c>
       <c r="J8">
-        <v>0.09832073713187128</v>
+        <v>0.01975409314036369</v>
       </c>
       <c r="K8">
-        <v>0.009087536484003067</v>
+        <v>0.003452382399700582</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1115,31 +2635,31 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>767</v>
+        <v>457</v>
       </c>
       <c r="D9">
-        <v>0.04397255275398493</v>
+        <v>0.008328871568664908</v>
       </c>
       <c r="E9">
-        <v>0.4942883859621361</v>
+        <v>0.1861984989373013</v>
       </c>
       <c r="F9">
-        <v>767</v>
+        <v>457</v>
       </c>
       <c r="G9">
-        <v>0.02961549442261457</v>
+        <v>0.0139751834794879</v>
       </c>
       <c r="H9">
-        <v>0.2541583327110857</v>
+        <v>0.1165054430020973</v>
       </c>
       <c r="I9">
-        <v>0.06259565346408635</v>
+        <v>0.005339499446563423</v>
       </c>
       <c r="J9">
-        <v>0.1115912006935105</v>
+        <v>0.03011539031285793</v>
       </c>
       <c r="K9">
-        <v>0.009086465812288225</v>
+        <v>0.005016741924919188</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1148,43 +2668,43 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>654</v>
+        <v>296</v>
       </c>
       <c r="D10">
-        <v>0.00114319147542119</v>
+        <v>0.0003964066272601485</v>
       </c>
       <c r="E10">
-        <v>0.3704899200238287</v>
+        <v>0.1147500200895593</v>
       </c>
       <c r="F10">
-        <v>654</v>
+        <v>296</v>
       </c>
       <c r="G10">
-        <v>0.02714481181465089</v>
+        <v>0.00912990840151906</v>
       </c>
       <c r="H10">
-        <v>0.1913383241044357</v>
+        <v>0.07058868743479252</v>
       </c>
       <c r="I10">
-        <v>0.03551134676672518</v>
+        <v>0.005453821271657944</v>
       </c>
       <c r="J10">
-        <v>0.08213384484406561</v>
+        <v>0.01655688183382154</v>
       </c>
       <c r="K10">
-        <v>0.008577075786888599</v>
+        <v>0.003241539001464844</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C11">
-        <v>29970</v>
+        <v>8658</v>
       </c>
       <c r="E11">
-        <v>5.442171867471188</v>
+        <v>1.583064587321132</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1195,31 +2715,31 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>596</v>
+        <v>506</v>
       </c>
       <c r="D12">
-        <v>0.0006435022223740816</v>
+        <v>0.0004216217203065753</v>
       </c>
       <c r="E12">
-        <v>0.3052417139988393</v>
+        <v>0.1925584269920364</v>
       </c>
       <c r="F12">
-        <v>596</v>
+        <v>506</v>
       </c>
       <c r="G12">
-        <v>0.02232490887399763</v>
+        <v>0.01556818722747266</v>
       </c>
       <c r="H12">
-        <v>0.159535918966867</v>
+        <v>0.1196210124762729</v>
       </c>
       <c r="I12">
-        <v>0.02808648243080825</v>
+        <v>0.008016383741050959</v>
       </c>
       <c r="J12">
-        <v>0.06734049273654819</v>
+        <v>0.02656910067889839</v>
       </c>
       <c r="K12">
-        <v>0.00692947197239846</v>
+        <v>0.005598750780336559</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1228,31 +2748,31 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>600</v>
+        <v>536</v>
       </c>
       <c r="D13">
-        <v>0.05176137282978743</v>
+        <v>0.01229421282187104</v>
       </c>
       <c r="E13">
-        <v>0.5250054179923609</v>
+        <v>0.2226458140648901</v>
       </c>
       <c r="F13">
-        <v>600</v>
+        <v>536</v>
       </c>
       <c r="G13">
-        <v>0.03051798383239657</v>
+        <v>0.01651009276974946</v>
       </c>
       <c r="H13">
-        <v>0.2664935536449775</v>
+        <v>0.142159427748993</v>
       </c>
       <c r="I13">
-        <v>0.07340772391762584</v>
+        <v>0.007202693959698081</v>
       </c>
       <c r="J13">
-        <v>0.1163728426909074</v>
+        <v>0.03303466539364308</v>
       </c>
       <c r="K13">
-        <v>0.009415297186933458</v>
+        <v>0.005910579464398324</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1261,31 +2781,31 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D14">
-        <v>0.03603382047731429</v>
+        <v>0.01224307389929891</v>
       </c>
       <c r="E14">
-        <v>0.4188579020556062</v>
+        <v>0.2425615859683603</v>
       </c>
       <c r="F14">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G14">
-        <v>0.02392205724027008</v>
+        <v>0.01790697884280235</v>
       </c>
       <c r="H14">
-        <v>0.2083199179032817</v>
+        <v>0.1520796772092581</v>
       </c>
       <c r="I14">
-        <v>0.05595924577210099</v>
+        <v>0.007543419837020338</v>
       </c>
       <c r="J14">
-        <v>0.1007381664821878</v>
+        <v>0.03912195598240942</v>
       </c>
       <c r="K14">
-        <v>0.007520798943005502</v>
+        <v>0.006415800424292684</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1294,43 +2814,43 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>596</v>
+        <v>506</v>
       </c>
       <c r="D15">
-        <v>0.001017940114252269</v>
+        <v>0.0006563481874763966</v>
       </c>
       <c r="E15">
-        <v>0.3085831600474194</v>
+        <v>0.1939126430079341</v>
       </c>
       <c r="F15">
-        <v>596</v>
+        <v>506</v>
       </c>
       <c r="G15">
-        <v>0.02256637054961175</v>
+        <v>0.01534941175486892</v>
       </c>
       <c r="H15">
-        <v>0.1584846697514877</v>
+        <v>0.1204874954419211</v>
       </c>
       <c r="I15">
-        <v>0.0311063698027283</v>
+        <v>0.00902850809507072</v>
       </c>
       <c r="J15">
-        <v>0.06820863706525415</v>
+        <v>0.02665615233127028</v>
       </c>
       <c r="K15">
-        <v>0.007022174424491823</v>
+        <v>0.005596674862317741</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C16">
-        <v>29970</v>
+        <v>8658</v>
       </c>
       <c r="E16">
-        <v>5.749750441871583</v>
+        <v>1.823301340220496</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1341,31 +2861,31 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D17">
-        <v>0.0006722183898091316</v>
+        <v>0.000515624531544745</v>
       </c>
       <c r="E17">
-        <v>0.3140578529564664</v>
+        <v>0.2264175299787894</v>
       </c>
       <c r="F17">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="G17">
-        <v>0.02285533223766834</v>
+        <v>0.01833511725999415</v>
       </c>
       <c r="H17">
-        <v>0.1625551828183234</v>
+        <v>0.1411923301639035</v>
       </c>
       <c r="I17">
-        <v>0.02750786673277617</v>
+        <v>0.009157283580861986</v>
       </c>
       <c r="J17">
-        <v>0.07212121644988656</v>
+        <v>0.0310315047390759</v>
       </c>
       <c r="K17">
-        <v>0.007238568505272269</v>
+        <v>0.006580751040019095</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1374,31 +2894,31 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>700</v>
+        <v>753</v>
       </c>
       <c r="D18">
-        <v>0.03883059276267886</v>
+        <v>0.02272252587135881</v>
       </c>
       <c r="E18">
-        <v>0.408836656017229</v>
+        <v>0.3503522661048919</v>
       </c>
       <c r="F18">
-        <v>700</v>
+        <v>753</v>
       </c>
       <c r="G18">
-        <v>0.02463668258860707</v>
+        <v>0.02621872501913458</v>
       </c>
       <c r="H18">
-        <v>0.2230465000029653</v>
+        <v>0.2258370801573619</v>
       </c>
       <c r="I18">
-        <v>0.04918480466585606</v>
+        <v>0.01377235737163574</v>
       </c>
       <c r="J18">
-        <v>0.08031762111932039</v>
+        <v>0.04709605779498816</v>
       </c>
       <c r="K18">
-        <v>0.007905490463599563</v>
+        <v>0.009162637521512806</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1407,31 +2927,31 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="D19">
-        <v>0.03761465335264802</v>
+        <v>0.01790125900879502</v>
       </c>
       <c r="E19">
-        <v>0.4353035319363698</v>
+        <v>0.315877033979632</v>
       </c>
       <c r="F19">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="G19">
-        <v>0.0261717108078301</v>
+        <v>0.02308193605858833</v>
       </c>
       <c r="H19">
-        <v>0.2290892683668062</v>
+        <v>0.1988431399222463</v>
       </c>
       <c r="I19">
-        <v>0.05327804945409298</v>
+        <v>0.01007512840442359</v>
       </c>
       <c r="J19">
-        <v>0.09393661713693291</v>
+        <v>0.0500609006267041</v>
       </c>
       <c r="K19">
-        <v>0.008189236046746373</v>
+        <v>0.008323748596012592</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1440,43 +2960,43 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D20">
-        <v>0.001063626143150032</v>
+        <v>0.000798960099928081</v>
       </c>
       <c r="E20">
-        <v>0.3238151069963351</v>
+        <v>0.2303140079602599</v>
       </c>
       <c r="F20">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="G20">
-        <v>0.02351035445462912</v>
+        <v>0.01858517876826227</v>
       </c>
       <c r="H20">
-        <v>0.1675081006251276</v>
+        <v>0.1433871773770079</v>
       </c>
       <c r="I20">
-        <v>0.03058134857565165</v>
+        <v>0.009937774506397545</v>
       </c>
       <c r="J20">
-        <v>0.07252257992513478</v>
+        <v>0.03137853462249041</v>
       </c>
       <c r="K20">
-        <v>0.007427202654071152</v>
+        <v>0.006670894101262093</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C21">
-        <v>29970</v>
+        <v>8658</v>
       </c>
       <c r="E21">
-        <v>5.324568327632733</v>
+        <v>1.692142163054086</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1487,31 +3007,31 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D22">
-        <v>0.000669678789563477</v>
+        <v>0.0005583638558164239</v>
       </c>
       <c r="E22">
-        <v>0.3145572530338541</v>
+        <v>0.2540864879265428</v>
       </c>
       <c r="F22">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G22">
-        <v>0.02317135012708604</v>
+        <v>0.02062078844755888</v>
       </c>
       <c r="H22">
-        <v>0.1652035046136007</v>
+        <v>0.1591175820212811</v>
       </c>
       <c r="I22">
-        <v>0.02717294765170664</v>
+        <v>0.009306422434747219</v>
       </c>
       <c r="J22">
-        <v>0.06931093393359333</v>
+        <v>0.03496986697427928</v>
       </c>
       <c r="K22">
-        <v>0.00736839696764946</v>
+        <v>0.007431280566379428</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1520,31 +3040,31 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D23">
-        <v>0.04429445380810648</v>
+        <v>0.01905610016547143</v>
       </c>
       <c r="E23">
-        <v>0.444244522950612</v>
+        <v>0.3263950300170109</v>
       </c>
       <c r="F23">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="G23">
-        <v>0.02742013125680387</v>
+        <v>0.02467061777133495</v>
       </c>
       <c r="H23">
-        <v>0.2495250194333494</v>
+        <v>0.2109888207633048</v>
       </c>
       <c r="I23">
-        <v>0.04927408462390304</v>
+        <v>0.01293627917766571</v>
       </c>
       <c r="J23">
-        <v>0.0821877057896927</v>
+        <v>0.04204260336700827</v>
       </c>
       <c r="K23">
-        <v>0.008795603644102812</v>
+        <v>0.008801386808045208</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1553,31 +3073,31 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>842</v>
+        <v>760</v>
       </c>
       <c r="D24">
-        <v>0.04806467716116458</v>
+        <v>0.01846537017263472</v>
       </c>
       <c r="E24">
-        <v>0.5313325690804049</v>
+        <v>0.3178235500818118</v>
       </c>
       <c r="F24">
-        <v>842</v>
+        <v>760</v>
       </c>
       <c r="G24">
-        <v>0.03223047452047467</v>
+        <v>0.02345495589543134</v>
       </c>
       <c r="H24">
-        <v>0.2864031813805923</v>
+        <v>0.2002281520981342</v>
       </c>
       <c r="I24">
-        <v>0.06177053553983569</v>
+        <v>0.01057314476929605</v>
       </c>
       <c r="J24">
-        <v>0.1093487381003797</v>
+        <v>0.0496464908355847</v>
       </c>
       <c r="K24">
-        <v>0.01035381061956286</v>
+        <v>0.008413170464336872</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1586,43 +3106,43 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D25">
-        <v>0.0009925569174811244</v>
+        <v>0.0008499774849042296</v>
       </c>
       <c r="E25">
-        <v>0.314706314005889</v>
+        <v>0.2456068050814793</v>
       </c>
       <c r="F25">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G25">
-        <v>0.02304379409179091</v>
+        <v>0.01988446700852364</v>
       </c>
       <c r="H25">
-        <v>0.1656961460830644</v>
+        <v>0.153726868913509</v>
       </c>
       <c r="I25">
-        <v>0.02809353393968195</v>
+        <v>0.009830927359871566</v>
       </c>
       <c r="J25">
-        <v>0.0681444084038958</v>
+        <v>0.03336053411476314</v>
       </c>
       <c r="K25">
-        <v>0.007423146395012736</v>
+        <v>0.007082575815729797</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C26">
-        <v>29970</v>
+        <v>8658</v>
       </c>
       <c r="E26">
-        <v>5.50207183486782</v>
+        <v>1.849189374130219</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1633,31 +3153,31 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D27">
-        <v>0.0006179658230394125</v>
+        <v>0.0005083117866888642</v>
       </c>
       <c r="E27">
-        <v>0.295103364973329</v>
+        <v>0.2267988200765103</v>
       </c>
       <c r="F27">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="G27">
-        <v>0.02203975291922688</v>
+        <v>0.01851836126297712</v>
       </c>
       <c r="H27">
-        <v>0.1565726712578908</v>
+        <v>0.1428566677495837</v>
       </c>
       <c r="I27">
-        <v>0.02578394731972367</v>
+        <v>0.007039883523248136</v>
       </c>
       <c r="J27">
-        <v>0.06256945757195354</v>
+        <v>0.03143936826381832</v>
       </c>
       <c r="K27">
-        <v>0.007024338701739907</v>
+        <v>0.006656567682512105</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1666,31 +3186,31 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>688</v>
+        <v>825</v>
       </c>
       <c r="D28">
-        <v>0.03804118512198329</v>
+        <v>0.01767168648075312</v>
       </c>
       <c r="E28">
-        <v>0.4158156699268147</v>
+        <v>0.3496192810125649</v>
       </c>
       <c r="F28">
-        <v>688</v>
+        <v>825</v>
       </c>
       <c r="G28">
-        <v>0.02523178467527032</v>
+        <v>0.02480474219191819</v>
       </c>
       <c r="H28">
-        <v>0.2258483011974022</v>
+        <v>0.2375737591646612</v>
       </c>
       <c r="I28">
-        <v>0.05120586883276701</v>
+        <v>0.01092107163276523</v>
       </c>
       <c r="J28">
-        <v>0.0811602306785062</v>
+        <v>0.04025941551662982</v>
       </c>
       <c r="K28">
-        <v>0.007971331942826509</v>
+        <v>0.008873167680576444</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1699,31 +3219,31 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D29">
-        <v>0.03502431232482195</v>
+        <v>0.01264689106028527</v>
       </c>
       <c r="E29">
-        <v>0.3929775049909949</v>
+        <v>0.2579529189970344</v>
       </c>
       <c r="F29">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="G29">
-        <v>0.02251307247206569</v>
+        <v>0.01966474286746234</v>
       </c>
       <c r="H29">
-        <v>0.1999440368963405</v>
+        <v>0.1660757920471951</v>
       </c>
       <c r="I29">
-        <v>0.0531348210060969</v>
+        <v>0.006829875172115862</v>
       </c>
       <c r="J29">
-        <v>0.08854688284918666</v>
+        <v>0.03675584588199854</v>
       </c>
       <c r="K29">
-        <v>0.007084146607667208</v>
+        <v>0.007125080446712673</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1732,43 +3252,43 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D30">
-        <v>0.0009537192527204752</v>
+        <v>0.0007896870374679565</v>
       </c>
       <c r="E30">
-        <v>0.3014485350577161</v>
+        <v>0.2279747819993645</v>
       </c>
       <c r="F30">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="G30">
-        <v>0.022300572716631</v>
+        <v>0.01846152322832495</v>
       </c>
       <c r="H30">
-        <v>0.1596361820120364</v>
+        <v>0.1431876925053075</v>
       </c>
       <c r="I30">
-        <v>0.02819542190991342</v>
+        <v>0.007782557397149503</v>
       </c>
       <c r="J30">
-        <v>0.06299923814367503</v>
+        <v>0.03118160995654762</v>
       </c>
       <c r="K30">
-        <v>0.007018173462711275</v>
+        <v>0.006757217110134661</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C31">
-        <v>29970</v>
+        <v>8658</v>
       </c>
       <c r="E31">
-        <v>5.410232564201578</v>
+        <v>2.202255672193132</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1779,31 +3299,31 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="D32">
-        <v>0.0006505129858851433</v>
+        <v>0.0005296687595546246</v>
       </c>
       <c r="E32">
-        <v>0.3057584480848163</v>
+        <v>0.239403301035054</v>
       </c>
       <c r="F32">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="G32">
-        <v>0.02250019309576601</v>
+        <v>0.01954033866059035</v>
       </c>
       <c r="H32">
-        <v>0.1582655449165031</v>
+        <v>0.1497579584829509</v>
       </c>
       <c r="I32">
-        <v>0.02836643578484654</v>
+        <v>0.009211970609612763</v>
       </c>
       <c r="J32">
-        <v>0.06807076907716691</v>
+        <v>0.03220329782925546</v>
       </c>
       <c r="K32">
-        <v>0.007064506295137107</v>
+        <v>0.007116713910363615</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1812,31 +3332,31 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>741</v>
+        <v>816</v>
       </c>
       <c r="D33">
-        <v>0.03939197584986687</v>
+        <v>0.02033850131556392</v>
       </c>
       <c r="E33">
-        <v>0.4226558610098436</v>
+        <v>0.3350342529593036</v>
       </c>
       <c r="F33">
-        <v>741</v>
+        <v>816</v>
       </c>
       <c r="G33">
-        <v>0.02545566379558295</v>
+        <v>0.02512909367214888</v>
       </c>
       <c r="H33">
-        <v>0.2282320410013199</v>
+        <v>0.2167659312253818</v>
       </c>
       <c r="I33">
-        <v>0.05144763691350818</v>
+        <v>0.01358296070247889</v>
       </c>
       <c r="J33">
-        <v>0.08473253448028117</v>
+        <v>0.04336199385579675</v>
       </c>
       <c r="K33">
-        <v>0.008147745276801288</v>
+        <v>0.008957575657404959</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1845,31 +3365,31 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>792</v>
+        <v>712</v>
       </c>
       <c r="D34">
-        <v>0.0385769207496196</v>
+        <v>0.01986554439645261</v>
       </c>
       <c r="E34">
-        <v>0.4575628449674696</v>
+        <v>0.343322420027107</v>
       </c>
       <c r="F34">
-        <v>792</v>
+        <v>712</v>
       </c>
       <c r="G34">
-        <v>0.02766514383256435</v>
+        <v>0.02547714707907289</v>
       </c>
       <c r="H34">
-        <v>0.2386068513151258</v>
+        <v>0.2170389113016427</v>
       </c>
       <c r="I34">
-        <v>0.05811553518287838</v>
+        <v>0.01212808291893452</v>
       </c>
       <c r="J34">
-        <v>0.0976088437018916</v>
+        <v>0.05205871246289462</v>
       </c>
       <c r="K34">
-        <v>0.00888256193138659</v>
+        <v>0.009003109531477094</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1878,43 +3398,43 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="D35">
-        <v>0.0009836856042966247</v>
+        <v>0.0008000207599252462</v>
       </c>
       <c r="E35">
-        <v>0.3105484700063244</v>
+        <v>0.2387434389675036</v>
       </c>
       <c r="F35">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="G35">
-        <v>0.02238896128255874</v>
+        <v>0.01932291011326015</v>
       </c>
       <c r="H35">
-        <v>0.160230919602327</v>
+        <v>0.1496929314453155</v>
       </c>
       <c r="I35">
-        <v>0.0296748373657465</v>
+        <v>0.009638840449042618</v>
       </c>
       <c r="J35">
-        <v>0.06969306024257094</v>
+        <v>0.03197980707045645</v>
       </c>
       <c r="K35">
-        <v>0.007105867378413677</v>
+        <v>0.006870638346299529</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C36">
-        <v>29970</v>
+        <v>8658</v>
       </c>
       <c r="E36">
-        <v>6.171085318317637</v>
+        <v>1.458830173010938</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1925,31 +3445,31 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="D37">
-        <v>0.0006352561758831143</v>
+        <v>0.0005089883925393224</v>
       </c>
       <c r="E37">
-        <v>0.3028815359575674</v>
+        <v>0.2275122010614723</v>
       </c>
       <c r="F37">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="G37">
-        <v>0.02231234987266362</v>
+        <v>0.01852847274858505</v>
       </c>
       <c r="H37">
-        <v>0.15992013621144</v>
+        <v>0.1426473675528541</v>
       </c>
       <c r="I37">
-        <v>0.02783712279051542</v>
+        <v>0.008017036016099155</v>
       </c>
       <c r="J37">
-        <v>0.06453784555196762</v>
+        <v>0.03130609088111669</v>
       </c>
       <c r="K37">
-        <v>0.007026719744317234</v>
+        <v>0.006642641616053879</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1958,31 +3478,31 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>680</v>
+        <v>826</v>
       </c>
       <c r="D38">
-        <v>0.03688058874104172</v>
+        <v>0.01815434778109193</v>
       </c>
       <c r="E38">
-        <v>0.3971880530007184</v>
+        <v>0.3333827040623873</v>
       </c>
       <c r="F38">
-        <v>680</v>
+        <v>826</v>
       </c>
       <c r="G38">
-        <v>0.02300918148830533</v>
+        <v>0.02533290267456323</v>
       </c>
       <c r="H38">
-        <v>0.2094098916277289</v>
+        <v>0.2164884087396786</v>
       </c>
       <c r="I38">
-        <v>0.05411811068188399</v>
+        <v>0.01271157723385841</v>
       </c>
       <c r="J38">
-        <v>0.08103855466470122</v>
+        <v>0.04258438211400062</v>
       </c>
       <c r="K38">
-        <v>0.007308336556889117</v>
+        <v>0.008869296056218445</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1991,31 +3511,31 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>742</v>
+        <v>701</v>
       </c>
       <c r="D39">
-        <v>0.03978866769466549</v>
+        <v>0.01533127261791378</v>
       </c>
       <c r="E39">
-        <v>0.4615475769387558</v>
+        <v>0.294309166027233</v>
       </c>
       <c r="F39">
-        <v>742</v>
+        <v>701</v>
       </c>
       <c r="G39">
-        <v>0.02653302426915616</v>
+        <v>0.02143932285252959</v>
       </c>
       <c r="H39">
-        <v>0.234511868446134</v>
+        <v>0.1841395848896354</v>
       </c>
       <c r="I39">
-        <v>0.06134774256497622</v>
+        <v>0.00871954089961946</v>
       </c>
       <c r="J39">
-        <v>0.1044916362734511</v>
+        <v>0.04826707614120096</v>
       </c>
       <c r="K39">
-        <v>0.008609524462372065</v>
+        <v>0.007884886814281344</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2024,43 +3544,43 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="D40">
-        <v>0.0009317608783021569</v>
+        <v>0.0007913658628240228</v>
       </c>
       <c r="E40">
-        <v>0.2998726679943502</v>
+        <v>0.2304660360096022</v>
       </c>
       <c r="F40">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="G40">
-        <v>0.02188836713321507</v>
+        <v>0.0187454919796437</v>
       </c>
       <c r="H40">
-        <v>0.1573368293466046</v>
+        <v>0.1449959346791729</v>
       </c>
       <c r="I40">
-        <v>0.02891053829807788</v>
+        <v>0.008626433904282749</v>
       </c>
       <c r="J40">
-        <v>0.06352892960421741</v>
+        <v>0.03092531429138035</v>
       </c>
       <c r="K40">
-        <v>0.007010898320004344</v>
+        <v>0.006671427632682025</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C41">
-        <v>29970</v>
+        <v>8658</v>
       </c>
       <c r="E41">
-        <v>5.844532071030699</v>
+        <v>1.699553197133355</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2071,31 +3591,31 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D42">
-        <v>0.0006095301359891891</v>
+        <v>0.0005166576011106372</v>
       </c>
       <c r="E42">
-        <v>0.2920291729969904</v>
+        <v>0.2261541510233656</v>
       </c>
       <c r="F42">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G42">
-        <v>0.02155247144401073</v>
+        <v>0.0183813392650336</v>
       </c>
       <c r="H42">
-        <v>0.1523480239557102</v>
+        <v>0.1418753172038123</v>
       </c>
       <c r="I42">
-        <v>0.02618481975514442</v>
+        <v>0.009177204687148333</v>
       </c>
       <c r="J42">
-        <v>0.06455203983932734</v>
+        <v>0.03001512784976512</v>
       </c>
       <c r="K42">
-        <v>0.006816743407398462</v>
+        <v>0.006601307541131973</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2104,31 +3624,31 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>683</v>
+        <v>921</v>
       </c>
       <c r="D43">
-        <v>0.04049962444696575</v>
+        <v>0.02362326707225293</v>
       </c>
       <c r="E43">
-        <v>0.410299552953802</v>
+        <v>0.3820673109730706</v>
       </c>
       <c r="F43">
-        <v>683</v>
+        <v>921</v>
       </c>
       <c r="G43">
-        <v>0.0247591455699876</v>
+        <v>0.02837361628189683</v>
       </c>
       <c r="H43">
-        <v>0.2241852226434276</v>
+        <v>0.2488956146407872</v>
       </c>
       <c r="I43">
-        <v>0.05057065922301263</v>
+        <v>0.01633612124715</v>
       </c>
       <c r="J43">
-        <v>0.07899398461449891</v>
+        <v>0.04782795789651573</v>
       </c>
       <c r="K43">
-        <v>0.007805553846992552</v>
+        <v>0.009999289875850081</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2137,31 +3657,31 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>712</v>
+        <v>678</v>
       </c>
       <c r="D44">
-        <v>0.03508917870931327</v>
+        <v>0.01647771336138248</v>
       </c>
       <c r="E44">
-        <v>0.4153031980386004</v>
+        <v>0.2915678049903363</v>
       </c>
       <c r="F44">
-        <v>712</v>
+        <v>678</v>
       </c>
       <c r="G44">
-        <v>0.02487302804365754</v>
+        <v>0.02099576860200614</v>
       </c>
       <c r="H44">
-        <v>0.213993031764403</v>
+        <v>0.1808841377496719</v>
       </c>
       <c r="I44">
-        <v>0.05436987825669348</v>
+        <v>0.009881172212772071</v>
       </c>
       <c r="J44">
-        <v>0.0906724298838526</v>
+        <v>0.04955635697115213</v>
       </c>
       <c r="K44">
-        <v>0.007829810259863734</v>
+        <v>0.007473795441910625</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2170,43 +3690,43 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D45">
-        <v>0.0009546044748276472</v>
+        <v>0.0007916698232293129</v>
       </c>
       <c r="E45">
-        <v>0.2962035239906982</v>
+        <v>0.2291640009498224</v>
       </c>
       <c r="F45">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G45">
-        <v>0.02176357491407543</v>
+        <v>0.01851719315163791</v>
       </c>
       <c r="H45">
-        <v>0.1542876047315076</v>
+        <v>0.1441671467619017</v>
       </c>
       <c r="I45">
-        <v>0.02836640982422978</v>
+        <v>0.00971702765673399</v>
       </c>
       <c r="J45">
-        <v>0.06432636291719973</v>
+        <v>0.03005529835354537</v>
       </c>
       <c r="K45">
-        <v>0.006807523313909769</v>
+        <v>0.006596438470296562</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C46">
-        <v>29970</v>
+        <v>8658</v>
       </c>
       <c r="E46">
-        <v>5.617999107576907</v>
+        <v>1.689285342232324</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2217,31 +3737,31 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>616</v>
+        <v>552</v>
       </c>
       <c r="D47">
-        <v>0.0005747547838836908</v>
+        <v>0.0004793627886101604</v>
       </c>
       <c r="E47">
-        <v>0.2783311340026557</v>
+        <v>0.2071672170422971</v>
       </c>
       <c r="F47">
-        <v>616</v>
+        <v>552</v>
       </c>
       <c r="G47">
-        <v>0.02096876420546323</v>
+        <v>0.0169202103279531</v>
       </c>
       <c r="H47">
-        <v>0.1500739860348403</v>
+        <v>0.129698061500676</v>
       </c>
       <c r="I47">
-        <v>0.02388614858500659</v>
+        <v>0.007764064590446651</v>
       </c>
       <c r="J47">
-        <v>0.05673868290614337</v>
+        <v>0.02864175930153579</v>
       </c>
       <c r="K47">
-        <v>0.00661860394757241</v>
+        <v>0.005953405052423477</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2250,31 +3770,31 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>657</v>
+        <v>828</v>
       </c>
       <c r="D48">
-        <v>0.03103462466970086</v>
+        <v>0.0206665254663676</v>
       </c>
       <c r="E48">
-        <v>0.3495067979674786</v>
+        <v>0.3412574490066618</v>
       </c>
       <c r="F48">
-        <v>657</v>
+        <v>828</v>
       </c>
       <c r="G48">
-        <v>0.02071672712918371</v>
+        <v>0.02575751987751573</v>
       </c>
       <c r="H48">
-        <v>0.1866934909485281</v>
+        <v>0.2227480597794056</v>
       </c>
       <c r="I48">
-        <v>0.04608093039132655</v>
+        <v>0.01391302712727338</v>
       </c>
       <c r="J48">
-        <v>0.06936819839756936</v>
+        <v>0.04228134918957949</v>
       </c>
       <c r="K48">
-        <v>0.006636355654336512</v>
+        <v>0.008949528448283672</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2283,31 +3803,31 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>703</v>
+        <v>651</v>
       </c>
       <c r="D49">
-        <v>0.02781740645878017</v>
+        <v>0.01376310072373599</v>
       </c>
       <c r="E49">
-        <v>0.362280659028329</v>
+        <v>0.2712335070827976</v>
       </c>
       <c r="F49">
-        <v>703</v>
+        <v>651</v>
       </c>
       <c r="G49">
-        <v>0.02169294643681496</v>
+        <v>0.01989243517164141</v>
       </c>
       <c r="H49">
-        <v>0.1869663967518136</v>
+        <v>0.1703157571610063</v>
       </c>
       <c r="I49">
-        <v>0.04908315965440124</v>
+        <v>0.008847662713378668</v>
       </c>
       <c r="J49">
-        <v>0.07687548745889217</v>
+        <v>0.04348834685515612</v>
       </c>
       <c r="K49">
-        <v>0.006981167127378285</v>
+        <v>0.007090475759468973</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2316,43 +3836,43 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>616</v>
+        <v>552</v>
       </c>
       <c r="D50">
-        <v>0.0008710594847798347</v>
+        <v>0.0008046719012781978</v>
       </c>
       <c r="E50">
-        <v>0.2783965959679335</v>
+        <v>0.2124944620300084</v>
       </c>
       <c r="F50">
-        <v>616</v>
+        <v>552</v>
       </c>
       <c r="G50">
-        <v>0.02093599946238101</v>
+        <v>0.01760664244648069</v>
       </c>
       <c r="H50">
-        <v>0.1493275959510356</v>
+        <v>0.1324252595659345</v>
       </c>
       <c r="I50">
-        <v>0.02558139839675277</v>
+        <v>0.008816446177661419</v>
       </c>
       <c r="J50">
-        <v>0.05572647729422897</v>
+        <v>0.02884030318818986</v>
       </c>
       <c r="K50">
-        <v>0.00673375022597611</v>
+        <v>0.006167244049720466</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C51">
-        <v>29970</v>
+        <v>8658</v>
       </c>
       <c r="E51">
-        <v>5.172414302243851</v>
+        <v>1.802756641176529</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2363,31 +3883,31 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>629.4</v>
+        <v>588</v>
       </c>
       <c r="D52">
-        <v>0.0006590770091861487</v>
+        <v>0.000566498376429081</v>
       </c>
       <c r="E52">
-        <v>0.3101284546079114</v>
+        <v>0.2648716639960185</v>
       </c>
       <c r="F52">
-        <v>629.4</v>
+        <v>588</v>
       </c>
       <c r="G52">
-        <v>0.0229291292373091</v>
+        <v>0.02143494284246117</v>
       </c>
       <c r="H52">
-        <v>0.1626409865450114</v>
+        <v>0.1645118382293731</v>
       </c>
       <c r="I52">
-        <v>0.0277401351951994</v>
+        <v>0.01075455755926669</v>
       </c>
       <c r="J52">
-        <v>0.06779643512563779</v>
+        <v>0.03631579352077097</v>
       </c>
       <c r="K52">
-        <v>0.007220747484825552</v>
+        <v>0.00769373495131731</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2396,31 +3916,31 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>693.9</v>
+        <v>834</v>
       </c>
       <c r="D53">
-        <v>0.04037235248833895</v>
+        <v>0.02264657127670944</v>
       </c>
       <c r="E53">
-        <v>0.4274428313830868</v>
+        <v>0.3449170649982989</v>
       </c>
       <c r="F53">
-        <v>693.9</v>
+        <v>834</v>
       </c>
       <c r="G53">
-        <v>0.02554169931681827</v>
+        <v>0.02550005540251732</v>
       </c>
       <c r="H53">
-        <v>0.2294636519160122</v>
+        <v>0.2232411543373019</v>
       </c>
       <c r="I53">
-        <v>0.05349633742589503</v>
+        <v>0.01603926601819694</v>
       </c>
       <c r="J53">
-        <v>0.08619128759019076</v>
+        <v>0.04353116685524583</v>
       </c>
       <c r="K53">
-        <v>0.008096135535743088</v>
+        <v>0.009011590504087508</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2429,31 +3949,31 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>729.4</v>
+        <v>710</v>
       </c>
       <c r="D54">
-        <v>0.03851226884871721</v>
+        <v>0.01832853222731501</v>
       </c>
       <c r="E54">
-        <v>0.4465136441984214</v>
+        <v>0.3025407700333744</v>
       </c>
       <c r="F54">
-        <v>729.4</v>
+        <v>710</v>
       </c>
       <c r="G54">
-        <v>0.02650896112900227</v>
+        <v>0.02223441388923675</v>
       </c>
       <c r="H54">
-        <v>0.2308285962673836</v>
+        <v>0.1902921374421567</v>
       </c>
       <c r="I54">
-        <v>0.05753727310802788</v>
+        <v>0.01154048729222268</v>
       </c>
       <c r="J54">
-        <v>0.09802747138310224</v>
+        <v>0.04671486595179886</v>
       </c>
       <c r="K54">
-        <v>0.008392241678666323</v>
+        <v>0.007889323751442134</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2462,47 +3982,5887 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>629.4</v>
+        <v>588</v>
       </c>
       <c r="D55">
-        <v>0.001034029701258987</v>
+        <v>0.0007662036223337054</v>
       </c>
       <c r="E55">
-        <v>0.3263727731071412</v>
+        <v>0.2261469929944724</v>
       </c>
       <c r="F55">
-        <v>629.4</v>
+        <v>588</v>
       </c>
       <c r="G55">
-        <v>0.02395229784306139</v>
+        <v>0.01831174874678254</v>
       </c>
       <c r="H55">
-        <v>0.1699178880313411</v>
+        <v>0.1396416763309389</v>
       </c>
       <c r="I55">
-        <v>0.03114645181922242</v>
+        <v>0.01029159512836486</v>
       </c>
       <c r="J55">
-        <v>0.0708711838000454</v>
+        <v>0.03132179414387792</v>
       </c>
       <c r="K55">
-        <v>0.007580200931988657</v>
+        <v>0.006555220577865839</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56">
+        <v>8658</v>
+      </c>
+      <c r="E56">
+        <v>1.772387351724319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C56">
-        <v>29970</v>
-      </c>
-      <c r="E56">
-        <v>5.580658956780098</v>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>591</v>
+      </c>
+      <c r="D57">
+        <v>0.0004931213334202766</v>
+      </c>
+      <c r="E57">
+        <v>0.2252433371031657</v>
+      </c>
+      <c r="F57">
+        <v>591</v>
+      </c>
+      <c r="G57">
+        <v>0.01816948154009879</v>
+      </c>
+      <c r="H57">
+        <v>0.1410314950626343</v>
+      </c>
+      <c r="I57">
+        <v>0.008838637848384678</v>
+      </c>
+      <c r="J57">
+        <v>0.03083471488207579</v>
+      </c>
+      <c r="K57">
+        <v>0.006507564103230834</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>745</v>
+      </c>
+      <c r="D58">
+        <v>0.01929087587632239</v>
+      </c>
+      <c r="E58">
+        <v>0.3154401530046016</v>
+      </c>
+      <c r="F58">
+        <v>745</v>
+      </c>
+      <c r="G58">
+        <v>0.02349254442378879</v>
+      </c>
+      <c r="H58">
+        <v>0.2031838706461713</v>
+      </c>
+      <c r="I58">
+        <v>0.01306805713102221</v>
+      </c>
+      <c r="J58">
+        <v>0.04201865952927619</v>
+      </c>
+      <c r="K58">
+        <v>0.008288387442007661</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>733</v>
+      </c>
+      <c r="D59">
+        <v>0.01626395084895194</v>
+      </c>
+      <c r="E59">
+        <v>0.3103314880281687</v>
+      </c>
+      <c r="F59">
+        <v>733</v>
+      </c>
+      <c r="G59">
+        <v>0.0227976260939613</v>
+      </c>
+      <c r="H59">
+        <v>0.1935262555489317</v>
+      </c>
+      <c r="I59">
+        <v>0.01061119418591261</v>
+      </c>
+      <c r="J59">
+        <v>0.05040086281951517</v>
+      </c>
+      <c r="K59">
+        <v>0.008092651725746691</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>591</v>
+      </c>
+      <c r="D60">
+        <v>0.0007593173068016768</v>
+      </c>
+      <c r="E60">
+        <v>0.2240054999710992</v>
+      </c>
+      <c r="F60">
+        <v>591</v>
+      </c>
+      <c r="G60">
+        <v>0.01807544520124793</v>
+      </c>
+      <c r="H60">
+        <v>0.1396726875100285</v>
+      </c>
+      <c r="I60">
+        <v>0.009411331848241389</v>
+      </c>
+      <c r="J60">
+        <v>0.03082072664983571</v>
+      </c>
+      <c r="K60">
+        <v>0.006432561436668038</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61">
+        <v>8658</v>
+      </c>
+      <c r="E61">
+        <v>1.704541308921762</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>625</v>
+      </c>
+      <c r="D62">
+        <v>0.0004970051813870668</v>
+      </c>
+      <c r="E62">
+        <v>0.2343090559588745</v>
+      </c>
+      <c r="F62">
+        <v>625</v>
+      </c>
+      <c r="G62">
+        <v>0.01882299687713385</v>
+      </c>
+      <c r="H62">
+        <v>0.1458427355391905</v>
+      </c>
+      <c r="I62">
+        <v>0.009488158044405282</v>
+      </c>
+      <c r="J62">
+        <v>0.03265259985346347</v>
+      </c>
+      <c r="K62">
+        <v>0.006822731695137918</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>722</v>
+      </c>
+      <c r="D63">
+        <v>0.01691212481819093</v>
+      </c>
+      <c r="E63">
+        <v>0.3008820830145851</v>
+      </c>
+      <c r="F63">
+        <v>722</v>
+      </c>
+      <c r="G63">
+        <v>0.02220471540931612</v>
+      </c>
+      <c r="H63">
+        <v>0.192963165929541</v>
+      </c>
+      <c r="I63">
+        <v>0.01191036880481988</v>
+      </c>
+      <c r="J63">
+        <v>0.04167484364006668</v>
+      </c>
+      <c r="K63">
+        <v>0.007945073652081192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>678</v>
+      </c>
+      <c r="D64">
+        <v>0.01531906030140817</v>
+      </c>
+      <c r="E64">
+        <v>0.2870371590834111</v>
+      </c>
+      <c r="F64">
+        <v>678</v>
+      </c>
+      <c r="G64">
+        <v>0.02106925076805055</v>
+      </c>
+      <c r="H64">
+        <v>0.1793585411505774</v>
+      </c>
+      <c r="I64">
+        <v>0.01055495243053883</v>
+      </c>
+      <c r="J64">
+        <v>0.04578540555667132</v>
+      </c>
+      <c r="K64">
+        <v>0.007461633766070008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>625</v>
+      </c>
+      <c r="D65">
+        <v>0.00077784713357687</v>
+      </c>
+      <c r="E65">
+        <v>0.2387792359804735</v>
+      </c>
+      <c r="F65">
+        <v>625</v>
+      </c>
+      <c r="G65">
+        <v>0.01925948692951351</v>
+      </c>
+      <c r="H65">
+        <v>0.1486745811998844</v>
+      </c>
+      <c r="I65">
+        <v>0.01031872618477792</v>
+      </c>
+      <c r="J65">
+        <v>0.03271744353696704</v>
+      </c>
+      <c r="K65">
+        <v>0.006884403177537024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>8658</v>
+      </c>
+      <c r="E66">
+        <v>1.771821554051712</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>535</v>
+      </c>
+      <c r="D67">
+        <v>0.0004694280214607716</v>
+      </c>
+      <c r="E67">
+        <v>0.2064393910113722</v>
+      </c>
+      <c r="F67">
+        <v>535</v>
+      </c>
+      <c r="G67">
+        <v>0.01639330142643303</v>
+      </c>
+      <c r="H67">
+        <v>0.1297749486984685</v>
+      </c>
+      <c r="I67">
+        <v>0.008791610831394792</v>
+      </c>
+      <c r="J67">
+        <v>0.02753967465832829</v>
+      </c>
+      <c r="K67">
+        <v>0.005888765677809715</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>728</v>
+      </c>
+      <c r="D68">
+        <v>0.01804023364093155</v>
+      </c>
+      <c r="E68">
+        <v>0.3001875779591501</v>
+      </c>
+      <c r="F68">
+        <v>728</v>
+      </c>
+      <c r="G68">
+        <v>0.02224170998670161</v>
+      </c>
+      <c r="H68">
+        <v>0.1936225190293044</v>
+      </c>
+      <c r="I68">
+        <v>0.01236822817008942</v>
+      </c>
+      <c r="J68">
+        <v>0.03977975063025951</v>
+      </c>
+      <c r="K68">
+        <v>0.007951773353852332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>670</v>
+      </c>
+      <c r="D69">
+        <v>0.01605512201786041</v>
+      </c>
+      <c r="E69">
+        <v>0.2875246740877628</v>
+      </c>
+      <c r="F69">
+        <v>670</v>
+      </c>
+      <c r="G69">
+        <v>0.02050298580434173</v>
+      </c>
+      <c r="H69">
+        <v>0.177387235336937</v>
+      </c>
+      <c r="I69">
+        <v>0.01078624895308167</v>
+      </c>
+      <c r="J69">
+        <v>0.04912616172805429</v>
+      </c>
+      <c r="K69">
+        <v>0.007396476110443473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>535</v>
+      </c>
+      <c r="D70">
+        <v>0.0007165698334574699</v>
+      </c>
+      <c r="E70">
+        <v>0.2067399979569018</v>
+      </c>
+      <c r="F70">
+        <v>535</v>
+      </c>
+      <c r="G70">
+        <v>0.01660463190637529</v>
+      </c>
+      <c r="H70">
+        <v>0.1285751236137003</v>
+      </c>
+      <c r="I70">
+        <v>0.009450345765799284</v>
+      </c>
+      <c r="J70">
+        <v>0.02817690174560994</v>
+      </c>
+      <c r="K70">
+        <v>0.005928433849476278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>8658</v>
+      </c>
+      <c r="E71">
+        <v>1.793008857988752</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>617</v>
+      </c>
+      <c r="D72">
+        <v>0.000495792250148952</v>
+      </c>
+      <c r="E72">
+        <v>0.2302680709399283</v>
+      </c>
+      <c r="F72">
+        <v>617</v>
+      </c>
+      <c r="G72">
+        <v>0.01873715315014124</v>
+      </c>
+      <c r="H72">
+        <v>0.1457042697584257</v>
+      </c>
+      <c r="I72">
+        <v>0.007888197433203459</v>
+      </c>
+      <c r="J72">
+        <v>0.03073590167332441</v>
+      </c>
+      <c r="K72">
+        <v>0.006744728307239711</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>824</v>
+      </c>
+      <c r="D73">
+        <v>0.02116601355373859</v>
+      </c>
+      <c r="E73">
+        <v>0.3538767599966377</v>
+      </c>
+      <c r="F73">
+        <v>824</v>
+      </c>
+      <c r="G73">
+        <v>0.02681223151739687</v>
+      </c>
+      <c r="H73">
+        <v>0.2332087240647525</v>
+      </c>
+      <c r="I73">
+        <v>0.01284454937558621</v>
+      </c>
+      <c r="J73">
+        <v>0.04269240901339799</v>
+      </c>
+      <c r="K73">
+        <v>0.009409350925125182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>700</v>
+      </c>
+      <c r="D74">
+        <v>0.0172188162105158</v>
+      </c>
+      <c r="E74">
+        <v>0.2943977830000222</v>
+      </c>
+      <c r="F74">
+        <v>700</v>
+      </c>
+      <c r="G74">
+        <v>0.02166047925129533</v>
+      </c>
+      <c r="H74">
+        <v>0.1878252309979871</v>
+      </c>
+      <c r="I74">
+        <v>0.00904312334023416</v>
+      </c>
+      <c r="J74">
+        <v>0.04463071492500603</v>
+      </c>
+      <c r="K74">
+        <v>0.007754519116133451</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>617</v>
+      </c>
+      <c r="D75">
+        <v>0.0007624492282047868</v>
+      </c>
+      <c r="E75">
+        <v>0.2319622229551896</v>
+      </c>
+      <c r="F75">
+        <v>617</v>
+      </c>
+      <c r="G75">
+        <v>0.01891253865323961</v>
+      </c>
+      <c r="H75">
+        <v>0.1461914350511506</v>
+      </c>
+      <c r="I75">
+        <v>0.008388489251956344</v>
+      </c>
+      <c r="J75">
+        <v>0.03100334329064935</v>
+      </c>
+      <c r="K75">
+        <v>0.006757671828381717</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76">
+        <v>8658</v>
+      </c>
+      <c r="E76">
+        <v>1.869606163119897</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>487</v>
+      </c>
+      <c r="D77">
+        <v>0.0004093659808859229</v>
+      </c>
+      <c r="E77">
+        <v>0.1882685580058023</v>
+      </c>
+      <c r="F77">
+        <v>487</v>
+      </c>
+      <c r="G77">
+        <v>0.01491826504934579</v>
+      </c>
+      <c r="H77">
+        <v>0.1173079599393532</v>
+      </c>
+      <c r="I77">
+        <v>0.007907664636150002</v>
+      </c>
+      <c r="J77">
+        <v>0.02648007101379335</v>
+      </c>
+      <c r="K77">
+        <v>0.005328253260813653</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>585</v>
+      </c>
+      <c r="D78">
+        <v>0.01486551156267524</v>
+      </c>
+      <c r="E78">
+        <v>0.2474765370134264</v>
+      </c>
+      <c r="F78">
+        <v>585</v>
+      </c>
+      <c r="G78">
+        <v>0.01807780843228102</v>
+      </c>
+      <c r="H78">
+        <v>0.1593393587972969</v>
+      </c>
+      <c r="I78">
+        <v>0.01011219108477235</v>
+      </c>
+      <c r="J78">
+        <v>0.03406327869743109</v>
+      </c>
+      <c r="K78">
+        <v>0.006398216472007334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>612</v>
+      </c>
+      <c r="D79">
+        <v>0.01497018989175558</v>
+      </c>
+      <c r="E79">
+        <v>0.273992495960556</v>
+      </c>
+      <c r="F79">
+        <v>612</v>
+      </c>
+      <c r="G79">
+        <v>0.01934605708811432</v>
+      </c>
+      <c r="H79">
+        <v>0.1707885561045259</v>
+      </c>
+      <c r="I79">
+        <v>0.01017689541913569</v>
+      </c>
+      <c r="J79">
+        <v>0.04551558056846261</v>
+      </c>
+      <c r="K79">
+        <v>0.007112902589142323</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>487</v>
+      </c>
+      <c r="D80">
+        <v>0.0006692345486953855</v>
+      </c>
+      <c r="E80">
+        <v>0.1955804430181161</v>
+      </c>
+      <c r="F80">
+        <v>487</v>
+      </c>
+      <c r="G80">
+        <v>0.0153948029037565</v>
+      </c>
+      <c r="H80">
+        <v>0.121595052536577</v>
+      </c>
+      <c r="I80">
+        <v>0.008980193757452071</v>
+      </c>
+      <c r="J80">
+        <v>0.02740822220221162</v>
+      </c>
+      <c r="K80">
+        <v>0.005544453859329224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81">
+        <v>8658</v>
+      </c>
+      <c r="E81">
+        <v>1.698253405746073</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>650</v>
+      </c>
+      <c r="D82">
+        <v>0.0005453756311908364</v>
+      </c>
+      <c r="E82">
+        <v>0.2457535190042108</v>
+      </c>
+      <c r="F82">
+        <v>650</v>
+      </c>
+      <c r="G82">
+        <v>0.01994174637366086</v>
+      </c>
+      <c r="H82">
+        <v>0.1551130348816514</v>
+      </c>
+      <c r="I82">
+        <v>0.008443803293630481</v>
+      </c>
+      <c r="J82">
+        <v>0.03320206992793828</v>
+      </c>
+      <c r="K82">
+        <v>0.007148524280637503</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>843</v>
+      </c>
+      <c r="D83">
+        <v>0.01984924427233636</v>
+      </c>
+      <c r="E83">
+        <v>0.3467818089993671</v>
+      </c>
+      <c r="F83">
+        <v>843</v>
+      </c>
+      <c r="G83">
+        <v>0.0265646749176085</v>
+      </c>
+      <c r="H83">
+        <v>0.2265552305616438</v>
+      </c>
+      <c r="I83">
+        <v>0.01255897816736251</v>
+      </c>
+      <c r="J83">
+        <v>0.04325979098211974</v>
+      </c>
+      <c r="K83">
+        <v>0.009252421674318612</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>707</v>
+      </c>
+      <c r="D84">
+        <v>0.01620774681214243</v>
+      </c>
+      <c r="E84">
+        <v>0.2927591720363125</v>
+      </c>
+      <c r="F84">
+        <v>707</v>
+      </c>
+      <c r="G84">
+        <v>0.02184523118194193</v>
+      </c>
+      <c r="H84">
+        <v>0.1870185307925567</v>
+      </c>
+      <c r="I84">
+        <v>0.009124946198426187</v>
+      </c>
+      <c r="J84">
+        <v>0.04310120758600533</v>
+      </c>
+      <c r="K84">
+        <v>0.007847478846088052</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>650</v>
+      </c>
+      <c r="D85">
+        <v>0.0008558881236240268</v>
+      </c>
+      <c r="E85">
+        <v>0.2443395250011235</v>
+      </c>
+      <c r="F85">
+        <v>650</v>
+      </c>
+      <c r="G85">
+        <v>0.01984085887670517</v>
+      </c>
+      <c r="H85">
+        <v>0.1540756354806945</v>
+      </c>
+      <c r="I85">
+        <v>0.008856167201884091</v>
+      </c>
+      <c r="J85">
+        <v>0.03277130948845297</v>
+      </c>
+      <c r="K85">
+        <v>0.00716063380241394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86">
+        <v>8658</v>
+      </c>
+      <c r="E86">
+        <v>1.68481941986829</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>611</v>
+      </c>
+      <c r="D87">
+        <v>0.0005172452656552196</v>
+      </c>
+      <c r="E87">
+        <v>0.2294653720455244</v>
+      </c>
+      <c r="F87">
+        <v>611</v>
+      </c>
+      <c r="G87">
+        <v>0.01867790555115789</v>
+      </c>
+      <c r="H87">
+        <v>0.1442011286271736</v>
+      </c>
+      <c r="I87">
+        <v>0.007794123608618975</v>
+      </c>
+      <c r="J87">
+        <v>0.03182770044077188</v>
+      </c>
+      <c r="K87">
+        <v>0.006682769628241658</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>848</v>
+      </c>
+      <c r="D88">
+        <v>0.02130226651206613</v>
+      </c>
+      <c r="E88">
+        <v>0.3463883050717413</v>
+      </c>
+      <c r="F88">
+        <v>848</v>
+      </c>
+      <c r="G88">
+        <v>0.02606761630158871</v>
+      </c>
+      <c r="H88">
+        <v>0.2273269671713933</v>
+      </c>
+      <c r="I88">
+        <v>0.01242381811607629</v>
+      </c>
+      <c r="J88">
+        <v>0.04319940914865583</v>
+      </c>
+      <c r="K88">
+        <v>0.00914534879848361</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>674</v>
+      </c>
+      <c r="D89">
+        <v>0.01544459571596235</v>
+      </c>
+      <c r="E89">
+        <v>0.2773183420067653</v>
+      </c>
+      <c r="F89">
+        <v>674</v>
+      </c>
+      <c r="G89">
+        <v>0.02067038021050394</v>
+      </c>
+      <c r="H89">
+        <v>0.177962000365369</v>
+      </c>
+      <c r="I89">
+        <v>0.008645668509416282</v>
+      </c>
+      <c r="J89">
+        <v>0.04036048206035048</v>
+      </c>
+      <c r="K89">
+        <v>0.007331237313337624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>611</v>
+      </c>
+      <c r="D90">
+        <v>0.0007906864630058408</v>
+      </c>
+      <c r="E90">
+        <v>0.2290302229812369</v>
+      </c>
+      <c r="F90">
+        <v>611</v>
+      </c>
+      <c r="G90">
+        <v>0.01850698003545403</v>
+      </c>
+      <c r="H90">
+        <v>0.1440892744576558</v>
+      </c>
+      <c r="I90">
+        <v>0.008254460175521672</v>
+      </c>
+      <c r="J90">
+        <v>0.031401252374053</v>
+      </c>
+      <c r="K90">
+        <v>0.006601365050300956</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91">
+        <v>8658</v>
+      </c>
+      <c r="E91">
+        <v>1.449927951092832</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>517</v>
+      </c>
+      <c r="D92">
+        <v>0.0004439806798473001</v>
+      </c>
+      <c r="E92">
+        <v>0.1963910349877551</v>
+      </c>
+      <c r="F92">
+        <v>517</v>
+      </c>
+      <c r="G92">
+        <v>0.01580704655498266</v>
+      </c>
+      <c r="H92">
+        <v>0.123270099516958</v>
+      </c>
+      <c r="I92">
+        <v>0.007518963539041579</v>
+      </c>
+      <c r="J92">
+        <v>0.02687370532657951</v>
+      </c>
+      <c r="K92">
+        <v>0.005652685416862369</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>612</v>
+      </c>
+      <c r="D93">
+        <v>0.01504942250903696</v>
+      </c>
+      <c r="E93">
+        <v>0.2531312159262598</v>
+      </c>
+      <c r="F93">
+        <v>612</v>
+      </c>
+      <c r="G93">
+        <v>0.01888478302862495</v>
+      </c>
+      <c r="H93">
+        <v>0.1645589863182977</v>
+      </c>
+      <c r="I93">
+        <v>0.0100797995692119</v>
+      </c>
+      <c r="J93">
+        <v>0.03282056946773082</v>
+      </c>
+      <c r="K93">
+        <v>0.006591791403479874</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>537</v>
+      </c>
+      <c r="D94">
+        <v>0.01341105531901121</v>
+      </c>
+      <c r="E94">
+        <v>0.2318602120503783</v>
+      </c>
+      <c r="F94">
+        <v>537</v>
+      </c>
+      <c r="G94">
+        <v>0.01676833408419043</v>
+      </c>
+      <c r="H94">
+        <v>0.1470484873279929</v>
+      </c>
+      <c r="I94">
+        <v>0.007790227071382105</v>
+      </c>
+      <c r="J94">
+        <v>0.0361606611404568</v>
+      </c>
+      <c r="K94">
+        <v>0.005975086474791169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>517</v>
+      </c>
+      <c r="D95">
+        <v>0.0007083149394020438</v>
+      </c>
+      <c r="E95">
+        <v>0.2014414370059967</v>
+      </c>
+      <c r="F95">
+        <v>517</v>
+      </c>
+      <c r="G95">
+        <v>0.01631684880703688</v>
+      </c>
+      <c r="H95">
+        <v>0.1262118534650654</v>
+      </c>
+      <c r="I95">
+        <v>0.008143283193930984</v>
+      </c>
+      <c r="J95">
+        <v>0.02753942122217268</v>
+      </c>
+      <c r="K95">
+        <v>0.005731758195906878</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96">
+        <v>8658</v>
+      </c>
+      <c r="E96">
+        <v>1.663041067891754</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>611</v>
+      </c>
+      <c r="D97">
+        <v>0.0005198749713599682</v>
+      </c>
+      <c r="E97">
+        <v>0.2353610480204225</v>
+      </c>
+      <c r="F97">
+        <v>611</v>
+      </c>
+      <c r="G97">
+        <v>0.01898238901048899</v>
+      </c>
+      <c r="H97">
+        <v>0.1465910723200068</v>
+      </c>
+      <c r="I97">
+        <v>0.009662015945650637</v>
+      </c>
+      <c r="J97">
+        <v>0.03239078691694885</v>
+      </c>
+      <c r="K97">
+        <v>0.006862657144665718</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>722</v>
+      </c>
+      <c r="D98">
+        <v>0.01654639060143381</v>
+      </c>
+      <c r="E98">
+        <v>0.298999810940586</v>
+      </c>
+      <c r="F98">
+        <v>722</v>
+      </c>
+      <c r="G98">
+        <v>0.02238011732697487</v>
+      </c>
+      <c r="H98">
+        <v>0.1929388269782066</v>
+      </c>
+      <c r="I98">
+        <v>0.01110439491458237</v>
+      </c>
+      <c r="J98">
+        <v>0.04050131631083786</v>
+      </c>
+      <c r="K98">
+        <v>0.007886798353865743</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>736</v>
+      </c>
+      <c r="D99">
+        <v>0.01661256700754166</v>
+      </c>
+      <c r="E99">
+        <v>0.3130877560470253</v>
+      </c>
+      <c r="F99">
+        <v>736</v>
+      </c>
+      <c r="G99">
+        <v>0.02274653839413077</v>
+      </c>
+      <c r="H99">
+        <v>0.1947731102118269</v>
+      </c>
+      <c r="I99">
+        <v>0.01077504584100097</v>
+      </c>
+      <c r="J99">
+        <v>0.05182063218671829</v>
+      </c>
+      <c r="K99">
+        <v>0.008183659985661507</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>611</v>
+      </c>
+      <c r="D100">
+        <v>0.0007697346154600382</v>
+      </c>
+      <c r="E100">
+        <v>0.2290718890726566</v>
+      </c>
+      <c r="F100">
+        <v>611</v>
+      </c>
+      <c r="G100">
+        <v>0.01833297032862902</v>
+      </c>
+      <c r="H100">
+        <v>0.1431026915088296</v>
+      </c>
+      <c r="I100">
+        <v>0.009961819741874933</v>
+      </c>
+      <c r="J100">
+        <v>0.0311585774179548</v>
+      </c>
+      <c r="K100">
+        <v>0.006556078442372382</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101">
+        <v>8658</v>
+      </c>
+      <c r="E101">
+        <v>1.585213261074387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>620</v>
+      </c>
+      <c r="D102">
+        <v>0.0005251237889751792</v>
+      </c>
+      <c r="E102">
+        <v>0.2356638130731881</v>
+      </c>
+      <c r="F102">
+        <v>620</v>
+      </c>
+      <c r="G102">
+        <v>0.01902433484792709</v>
+      </c>
+      <c r="H102">
+        <v>0.1475020160432905</v>
+      </c>
+      <c r="I102">
+        <v>0.009323280421085656</v>
+      </c>
+      <c r="J102">
+        <v>0.03223211294971406</v>
+      </c>
+      <c r="K102">
+        <v>0.006792956846766174</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>930</v>
+      </c>
+      <c r="D103">
+        <v>0.02445922011975199</v>
+      </c>
+      <c r="E103">
+        <v>0.3831916020717472</v>
+      </c>
+      <c r="F103">
+        <v>930</v>
+      </c>
+      <c r="G103">
+        <v>0.0286404003854841</v>
+      </c>
+      <c r="H103">
+        <v>0.2500112070702016</v>
+      </c>
+      <c r="I103">
+        <v>0.01690035441424698</v>
+      </c>
+      <c r="J103">
+        <v>0.04700603184755892</v>
+      </c>
+      <c r="K103">
+        <v>0.01001393317710608</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>706</v>
+      </c>
+      <c r="D104">
+        <v>0.01762045023497194</v>
+      </c>
+      <c r="E104">
+        <v>0.2942568530561402</v>
+      </c>
+      <c r="F104">
+        <v>706</v>
+      </c>
+      <c r="G104">
+        <v>0.02164492686279118</v>
+      </c>
+      <c r="H104">
+        <v>0.1880674796411768</v>
+      </c>
+      <c r="I104">
+        <v>0.009817548096179962</v>
+      </c>
+      <c r="J104">
+        <v>0.04347052145749331</v>
+      </c>
+      <c r="K104">
+        <v>0.007750881486572325</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>620</v>
+      </c>
+      <c r="D105">
+        <v>0.0007968153804540634</v>
+      </c>
+      <c r="E105">
+        <v>0.2329773249803111</v>
+      </c>
+      <c r="F105">
+        <v>620</v>
+      </c>
+      <c r="G105">
+        <v>0.01872818893752992</v>
+      </c>
+      <c r="H105">
+        <v>0.1456650231266394</v>
+      </c>
+      <c r="I105">
+        <v>0.009733841638080776</v>
+      </c>
+      <c r="J105">
+        <v>0.03167122148443013</v>
+      </c>
+      <c r="K105">
+        <v>0.006719567463733256</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C106">
+        <v>8658</v>
+      </c>
+      <c r="E106">
+        <v>1.673374452162534</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>647</v>
+      </c>
+      <c r="D107">
+        <v>0.0005395507905632257</v>
+      </c>
+      <c r="E107">
+        <v>0.239880891982466</v>
+      </c>
+      <c r="F107">
+        <v>647</v>
+      </c>
+      <c r="G107">
+        <v>0.01958574564196169</v>
+      </c>
+      <c r="H107">
+        <v>0.1529469019733369</v>
+      </c>
+      <c r="I107">
+        <v>0.007464775000698864</v>
+      </c>
+      <c r="J107">
+        <v>0.03139857354108244</v>
+      </c>
+      <c r="K107">
+        <v>0.007031480316072702</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>896</v>
+      </c>
+      <c r="D108">
+        <v>0.02032163727562875</v>
+      </c>
+      <c r="E108">
+        <v>0.3607925749383867</v>
+      </c>
+      <c r="F108">
+        <v>896</v>
+      </c>
+      <c r="G108">
+        <v>0.02723524463362992</v>
+      </c>
+      <c r="H108">
+        <v>0.2375854951096699</v>
+      </c>
+      <c r="I108">
+        <v>0.01122103782836348</v>
+      </c>
+      <c r="J108">
+        <v>0.04544886038638651</v>
+      </c>
+      <c r="K108">
+        <v>0.009686537203378975</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>675</v>
+      </c>
+      <c r="D109">
+        <v>0.01529936701990664</v>
+      </c>
+      <c r="E109">
+        <v>0.2790432259207591</v>
+      </c>
+      <c r="F109">
+        <v>675</v>
+      </c>
+      <c r="G109">
+        <v>0.02135479764547199</v>
+      </c>
+      <c r="H109">
+        <v>0.1796511393040419</v>
+      </c>
+      <c r="I109">
+        <v>0.007704676128923893</v>
+      </c>
+      <c r="J109">
+        <v>0.04010022536385804</v>
+      </c>
+      <c r="K109">
+        <v>0.007470857352018356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>647</v>
+      </c>
+      <c r="D110">
+        <v>0.0008675329154357314</v>
+      </c>
+      <c r="E110">
+        <v>0.2425006029661745</v>
+      </c>
+      <c r="F110">
+        <v>647</v>
+      </c>
+      <c r="G110">
+        <v>0.01986853347625583</v>
+      </c>
+      <c r="H110">
+        <v>0.1545858079334721</v>
+      </c>
+      <c r="I110">
+        <v>0.008207483100704849</v>
+      </c>
+      <c r="J110">
+        <v>0.03139486408326775</v>
+      </c>
+      <c r="K110">
+        <v>0.00699344789609313</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111">
+        <v>8658</v>
+      </c>
+      <c r="E111">
+        <v>1.484244744060561</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>481</v>
+      </c>
+      <c r="D112">
+        <v>0.0004196750232949853</v>
+      </c>
+      <c r="E112">
+        <v>0.1844204360386357</v>
+      </c>
+      <c r="F112">
+        <v>481</v>
+      </c>
+      <c r="G112">
+        <v>0.01459302415605634</v>
+      </c>
+      <c r="H112">
+        <v>0.114729370106943</v>
+      </c>
+      <c r="I112">
+        <v>0.008035671547986567</v>
+      </c>
+      <c r="J112">
+        <v>0.02597804833203554</v>
+      </c>
+      <c r="K112">
+        <v>0.005212326301261783</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>590</v>
+      </c>
+      <c r="D113">
+        <v>0.01722019736189395</v>
+      </c>
+      <c r="E113">
+        <v>0.2517379419878125</v>
+      </c>
+      <c r="F113">
+        <v>590</v>
+      </c>
+      <c r="G113">
+        <v>0.01836498233024031</v>
+      </c>
+      <c r="H113">
+        <v>0.1632591197267175</v>
+      </c>
+      <c r="I113">
+        <v>0.01116224972065538</v>
+      </c>
+      <c r="J113">
+        <v>0.03306971665006131</v>
+      </c>
+      <c r="K113">
+        <v>0.006409006309695542</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>659</v>
+      </c>
+      <c r="D114">
+        <v>0.01643725123722106</v>
+      </c>
+      <c r="E114">
+        <v>0.2926216030027717</v>
+      </c>
+      <c r="F114">
+        <v>659</v>
+      </c>
+      <c r="G114">
+        <v>0.02077610639389604</v>
+      </c>
+      <c r="H114">
+        <v>0.1813178267329931</v>
+      </c>
+      <c r="I114">
+        <v>0.01124262809753418</v>
+      </c>
+      <c r="J114">
+        <v>0.04938510339707136</v>
+      </c>
+      <c r="K114">
+        <v>0.007427772390656173</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>481</v>
+      </c>
+      <c r="D115">
+        <v>0.0006610285490751266</v>
+      </c>
+      <c r="E115">
+        <v>0.1906348769553006</v>
+      </c>
+      <c r="F115">
+        <v>481</v>
+      </c>
+      <c r="G115">
+        <v>0.01532167464029044</v>
+      </c>
+      <c r="H115">
+        <v>0.1174971294822171</v>
+      </c>
+      <c r="I115">
+        <v>0.008929543313570321</v>
+      </c>
+      <c r="J115">
+        <v>0.02679921430535614</v>
+      </c>
+      <c r="K115">
+        <v>0.005581764155067503</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C116">
+        <v>8658</v>
+      </c>
+      <c r="E116">
+        <v>2.004466654150747</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>648</v>
+      </c>
+      <c r="D117">
+        <v>0.000537248095497489</v>
+      </c>
+      <c r="E117">
+        <v>0.2455998039804399</v>
+      </c>
+      <c r="F117">
+        <v>648</v>
+      </c>
+      <c r="G117">
+        <v>0.01995590806473047</v>
+      </c>
+      <c r="H117">
+        <v>0.1534144809702411</v>
+      </c>
+      <c r="I117">
+        <v>0.009495692560449243</v>
+      </c>
+      <c r="J117">
+        <v>0.03355401114095002</v>
+      </c>
+      <c r="K117">
+        <v>0.007243909174576402</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>828</v>
+      </c>
+      <c r="D118">
+        <v>0.02017019072081894</v>
+      </c>
+      <c r="E118">
+        <v>0.3451889330754057</v>
+      </c>
+      <c r="F118">
+        <v>828</v>
+      </c>
+      <c r="G118">
+        <v>0.02608265308663249</v>
+      </c>
+      <c r="H118">
+        <v>0.2233694907044992</v>
+      </c>
+      <c r="I118">
+        <v>0.01403263153042644</v>
+      </c>
+      <c r="J118">
+        <v>0.04400779958814383</v>
+      </c>
+      <c r="K118">
+        <v>0.009277752367779613</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>779</v>
+      </c>
+      <c r="D119">
+        <v>0.01774607750121504</v>
+      </c>
+      <c r="E119">
+        <v>0.3254786420147866</v>
+      </c>
+      <c r="F119">
+        <v>779</v>
+      </c>
+      <c r="G119">
+        <v>0.0237180256517604</v>
+      </c>
+      <c r="H119">
+        <v>0.2028008671477437</v>
+      </c>
+      <c r="I119">
+        <v>0.01146279729437083</v>
+      </c>
+      <c r="J119">
+        <v>0.05298134393524379</v>
+      </c>
+      <c r="K119">
+        <v>0.008558340836316347</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>648</v>
+      </c>
+      <c r="D120">
+        <v>0.0008286739466711879</v>
+      </c>
+      <c r="E120">
+        <v>0.2457267389399931</v>
+      </c>
+      <c r="F120">
+        <v>648</v>
+      </c>
+      <c r="G120">
+        <v>0.01971079292707145</v>
+      </c>
+      <c r="H120">
+        <v>0.1523562913062051</v>
+      </c>
+      <c r="I120">
+        <v>0.01008595828898251</v>
+      </c>
+      <c r="J120">
+        <v>0.03473973996005952</v>
+      </c>
+      <c r="K120">
+        <v>0.007123759016394615</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C121">
+        <v>8658</v>
+      </c>
+      <c r="E121">
+        <v>1.659742295159958</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>665</v>
+      </c>
+      <c r="D122">
+        <v>0.0005561730358749628</v>
+      </c>
+      <c r="E122">
+        <v>0.244182973052375</v>
+      </c>
+      <c r="F122">
+        <v>665</v>
+      </c>
+      <c r="G122">
+        <v>0.02007025689817965</v>
+      </c>
+      <c r="H122">
+        <v>0.1538091821130365</v>
+      </c>
+      <c r="I122">
+        <v>0.009054668829776347</v>
+      </c>
+      <c r="J122">
+        <v>0.03217907203361392</v>
+      </c>
+      <c r="K122">
+        <v>0.007163816597312689</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>978</v>
+      </c>
+      <c r="D123">
+        <v>0.02552121062763035</v>
+      </c>
+      <c r="E123">
+        <v>0.4025413380004466</v>
+      </c>
+      <c r="F123">
+        <v>978</v>
+      </c>
+      <c r="G123">
+        <v>0.03003786935005337</v>
+      </c>
+      <c r="H123">
+        <v>0.2626665626885369</v>
+      </c>
+      <c r="I123">
+        <v>0.01700036053080112</v>
+      </c>
+      <c r="J123">
+        <v>0.04944317962508649</v>
+      </c>
+      <c r="K123">
+        <v>0.01070487394463271</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>678</v>
+      </c>
+      <c r="D124">
+        <v>0.01674304506741464</v>
+      </c>
+      <c r="E124">
+        <v>0.2869554370408878</v>
+      </c>
+      <c r="F124">
+        <v>678</v>
+      </c>
+      <c r="G124">
+        <v>0.0214578720042482</v>
+      </c>
+      <c r="H124">
+        <v>0.1842835665447637</v>
+      </c>
+      <c r="I124">
+        <v>0.009488493553362787</v>
+      </c>
+      <c r="J124">
+        <v>0.04030278953723609</v>
+      </c>
+      <c r="K124">
+        <v>0.007790276547893882</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>665</v>
+      </c>
+      <c r="D125">
+        <v>0.000871466938406229</v>
+      </c>
+      <c r="E125">
+        <v>0.2499730959534645</v>
+      </c>
+      <c r="F125">
+        <v>665</v>
+      </c>
+      <c r="G125">
+        <v>0.02027675334829837</v>
+      </c>
+      <c r="H125">
+        <v>0.1569589998107404</v>
+      </c>
+      <c r="I125">
+        <v>0.009790829382836819</v>
+      </c>
+      <c r="J125">
+        <v>0.03331300686113536</v>
+      </c>
+      <c r="K125">
+        <v>0.007338217925280333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C126">
+        <v>8658</v>
+      </c>
+      <c r="E126">
+        <v>1.603959464002401</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>635</v>
+      </c>
+      <c r="D127">
+        <v>0.0005496907979249954</v>
+      </c>
+      <c r="E127">
+        <v>0.246868570917286</v>
+      </c>
+      <c r="F127">
+        <v>635</v>
+      </c>
+      <c r="G127">
+        <v>0.0200041689677164</v>
+      </c>
+      <c r="H127">
+        <v>0.154213605215773</v>
+      </c>
+      <c r="I127">
+        <v>0.0094557567499578</v>
+      </c>
+      <c r="J127">
+        <v>0.03397863288410008</v>
+      </c>
+      <c r="K127">
+        <v>0.007191449520178139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>811</v>
+      </c>
+      <c r="D128">
+        <v>0.01985612034332007</v>
+      </c>
+      <c r="E128">
+        <v>0.3333266710396856</v>
+      </c>
+      <c r="F128">
+        <v>811</v>
+      </c>
+      <c r="G128">
+        <v>0.02502441965043545</v>
+      </c>
+      <c r="H128">
+        <v>0.2164559789234772</v>
+      </c>
+      <c r="I128">
+        <v>0.01357664866372943</v>
+      </c>
+      <c r="J128">
+        <v>0.04208236129488796</v>
+      </c>
+      <c r="K128">
+        <v>0.00894276995677501</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>721</v>
+      </c>
+      <c r="D129">
+        <v>0.01563832128886133</v>
+      </c>
+      <c r="E129">
+        <v>0.3016157249221578</v>
+      </c>
+      <c r="F129">
+        <v>721</v>
+      </c>
+      <c r="G129">
+        <v>0.02236677892506123</v>
+      </c>
+      <c r="H129">
+        <v>0.1890132923144847</v>
+      </c>
+      <c r="I129">
+        <v>0.009793556295335293</v>
+      </c>
+      <c r="J129">
+        <v>0.04805299453437328</v>
+      </c>
+      <c r="K129">
+        <v>0.00800749659538269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>635</v>
+      </c>
+      <c r="D130">
+        <v>0.0008085157023742795</v>
+      </c>
+      <c r="E130">
+        <v>0.2400268260389566</v>
+      </c>
+      <c r="F130">
+        <v>635</v>
+      </c>
+      <c r="G130">
+        <v>0.01936365209985524</v>
+      </c>
+      <c r="H130">
+        <v>0.1496195743093267</v>
+      </c>
+      <c r="I130">
+        <v>0.01004772272426635</v>
+      </c>
+      <c r="J130">
+        <v>0.03283819672651589</v>
+      </c>
+      <c r="K130">
+        <v>0.006963283522054553</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131">
+        <v>8658</v>
+      </c>
+      <c r="E131">
+        <v>1.822900428087451</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>638</v>
+      </c>
+      <c r="D132">
+        <v>0.0005466090515255928</v>
+      </c>
+      <c r="E132">
+        <v>0.2423250610008836</v>
+      </c>
+      <c r="F132">
+        <v>638</v>
+      </c>
+      <c r="G132">
+        <v>0.01955470349639654</v>
+      </c>
+      <c r="H132">
+        <v>0.1539939104113728</v>
+      </c>
+      <c r="I132">
+        <v>0.007531538023613393</v>
+      </c>
+      <c r="J132">
+        <v>0.0328018848085776</v>
+      </c>
+      <c r="K132">
+        <v>0.007006326341070235</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>830</v>
+      </c>
+      <c r="D133">
+        <v>0.01883466995786875</v>
+      </c>
+      <c r="E133">
+        <v>0.3346666309516877</v>
+      </c>
+      <c r="F133">
+        <v>830</v>
+      </c>
+      <c r="G133">
+        <v>0.02538704394828528</v>
+      </c>
+      <c r="H133">
+        <v>0.2208125992910936</v>
+      </c>
+      <c r="I133">
+        <v>0.009996370878070593</v>
+      </c>
+      <c r="J133">
+        <v>0.04171455278992653</v>
+      </c>
+      <c r="K133">
+        <v>0.009031235822476447</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>655</v>
+      </c>
+      <c r="D134">
+        <v>0.01354286016430706</v>
+      </c>
+      <c r="E134">
+        <v>0.2682703920872882</v>
+      </c>
+      <c r="F134">
+        <v>655</v>
+      </c>
+      <c r="G134">
+        <v>0.02034559764433652</v>
+      </c>
+      <c r="H134">
+        <v>0.1737352117197588</v>
+      </c>
+      <c r="I134">
+        <v>0.007156041800044477</v>
+      </c>
+      <c r="J134">
+        <v>0.03777821140829474</v>
+      </c>
+      <c r="K134">
+        <v>0.007222039857879281</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>638</v>
+      </c>
+      <c r="D135">
+        <v>0.0008431548485532403</v>
+      </c>
+      <c r="E135">
+        <v>0.2407646980136633</v>
+      </c>
+      <c r="F135">
+        <v>638</v>
+      </c>
+      <c r="G135">
+        <v>0.01959345187060535</v>
+      </c>
+      <c r="H135">
+        <v>0.1524611392524093</v>
+      </c>
+      <c r="I135">
+        <v>0.008112235111184418</v>
+      </c>
+      <c r="J135">
+        <v>0.03213384631089866</v>
+      </c>
+      <c r="K135">
+        <v>0.007023393758572638</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C136">
+        <v>8658</v>
+      </c>
+      <c r="E136">
+        <v>1.534096113755368</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>572</v>
+      </c>
+      <c r="D137">
+        <v>0.0004899282939732075</v>
+      </c>
+      <c r="E137">
+        <v>0.2214005150599405</v>
+      </c>
+      <c r="F137">
+        <v>572</v>
+      </c>
+      <c r="G137">
+        <v>0.01760942570399493</v>
+      </c>
+      <c r="H137">
+        <v>0.1392044940730557</v>
+      </c>
+      <c r="I137">
+        <v>0.008842134848237038</v>
+      </c>
+      <c r="J137">
+        <v>0.03013028367422521</v>
+      </c>
+      <c r="K137">
+        <v>0.006332890829071403</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <v>769</v>
+      </c>
+      <c r="D138">
+        <v>0.01729469175916165</v>
+      </c>
+      <c r="E138">
+        <v>0.3177555450238287</v>
+      </c>
+      <c r="F138">
+        <v>769</v>
+      </c>
+      <c r="G138">
+        <v>0.02370142482686788</v>
+      </c>
+      <c r="H138">
+        <v>0.2053662640973926</v>
+      </c>
+      <c r="I138">
+        <v>0.01145324483513832</v>
+      </c>
+      <c r="J138">
+        <v>0.04291180137079209</v>
+      </c>
+      <c r="K138">
+        <v>0.008473216439597309</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>681</v>
+      </c>
+      <c r="D139">
+        <v>0.01562579348683357</v>
+      </c>
+      <c r="E139">
+        <v>0.2932220409857109</v>
+      </c>
+      <c r="F139">
+        <v>681</v>
+      </c>
+      <c r="G139">
+        <v>0.02090048580430448</v>
+      </c>
+      <c r="H139">
+        <v>0.1824624271830544</v>
+      </c>
+      <c r="I139">
+        <v>0.00980819424148649</v>
+      </c>
+      <c r="J139">
+        <v>0.04986070352606475</v>
+      </c>
+      <c r="K139">
+        <v>0.00749504123814404</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>572</v>
+      </c>
+      <c r="D140">
+        <v>0.0007230219198390841</v>
+      </c>
+      <c r="E140">
+        <v>0.2184448600746691</v>
+      </c>
+      <c r="F140">
+        <v>572</v>
+      </c>
+      <c r="G140">
+        <v>0.01752144063357264</v>
+      </c>
+      <c r="H140">
+        <v>0.1363214021548629</v>
+      </c>
+      <c r="I140">
+        <v>0.009460238041356206</v>
+      </c>
+      <c r="J140">
+        <v>0.02978260943200439</v>
+      </c>
+      <c r="K140">
+        <v>0.006264274590648711</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C141">
+        <v>8658</v>
+      </c>
+      <c r="E141">
+        <v>1.607330966042355</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>516</v>
+      </c>
+      <c r="D142">
+        <v>0.0004325441550463438</v>
+      </c>
+      <c r="E142">
+        <v>0.1969760319916531</v>
+      </c>
+      <c r="F142">
+        <v>516</v>
+      </c>
+      <c r="G142">
+        <v>0.01576838851906359</v>
+      </c>
+      <c r="H142">
+        <v>0.1242261949228123</v>
+      </c>
+      <c r="I142">
+        <v>0.007523557171225548</v>
+      </c>
+      <c r="J142">
+        <v>0.0265531474724412</v>
+      </c>
+      <c r="K142">
+        <v>0.005594988469965756</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>659</v>
+      </c>
+      <c r="D143">
+        <v>0.01637838548049331</v>
+      </c>
+      <c r="E143">
+        <v>0.2731016649631783</v>
+      </c>
+      <c r="F143">
+        <v>659</v>
+      </c>
+      <c r="G143">
+        <v>0.02022277691867203</v>
+      </c>
+      <c r="H143">
+        <v>0.1784519838402048</v>
+      </c>
+      <c r="I143">
+        <v>0.01066374988295138</v>
+      </c>
+      <c r="J143">
+        <v>0.03493295388761908</v>
+      </c>
+      <c r="K143">
+        <v>0.007103097043000162</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>685</v>
+      </c>
+      <c r="D144">
+        <v>0.014215282863006</v>
+      </c>
+      <c r="E144">
+        <v>0.2868789579952136</v>
+      </c>
+      <c r="F144">
+        <v>685</v>
+      </c>
+      <c r="G144">
+        <v>0.02130968705751002</v>
+      </c>
+      <c r="H144">
+        <v>0.1813469475600868</v>
+      </c>
+      <c r="I144">
+        <v>0.008698574150912464</v>
+      </c>
+      <c r="J144">
+        <v>0.04476420278660953</v>
+      </c>
+      <c r="K144">
+        <v>0.00750617275480181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>516</v>
+      </c>
+      <c r="D145">
+        <v>0.0006797031965106726</v>
+      </c>
+      <c r="E145">
+        <v>0.1968545879935846</v>
+      </c>
+      <c r="F145">
+        <v>516</v>
+      </c>
+      <c r="G145">
+        <v>0.01564435206819326</v>
+      </c>
+      <c r="H145">
+        <v>0.1240530321374536</v>
+      </c>
+      <c r="I145">
+        <v>0.008233484579250216</v>
+      </c>
+      <c r="J145">
+        <v>0.02634977735579014</v>
+      </c>
+      <c r="K145">
+        <v>0.005575337912887335</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C146">
+        <v>8658</v>
+      </c>
+      <c r="E146">
+        <v>1.440047515090555</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>493</v>
+      </c>
+      <c r="D147">
+        <v>0.0004229173064231873</v>
+      </c>
+      <c r="E147">
+        <v>0.1877614930272102</v>
+      </c>
+      <c r="F147">
+        <v>493</v>
+      </c>
+      <c r="G147">
+        <v>0.01505129761062562</v>
+      </c>
+      <c r="H147">
+        <v>0.1176547688664868</v>
+      </c>
+      <c r="I147">
+        <v>0.007389693171717227</v>
+      </c>
+      <c r="J147">
+        <v>0.02576889214105904</v>
+      </c>
+      <c r="K147">
+        <v>0.005398629349656403</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>509</v>
+      </c>
+      <c r="D148">
+        <v>0.01280642428901047</v>
+      </c>
+      <c r="E148">
+        <v>0.2150391840841621</v>
+      </c>
+      <c r="F148">
+        <v>509</v>
+      </c>
+      <c r="G148">
+        <v>0.01593089173547924</v>
+      </c>
+      <c r="H148">
+        <v>0.1387756610056385</v>
+      </c>
+      <c r="I148">
+        <v>0.008107812609523535</v>
+      </c>
+      <c r="J148">
+        <v>0.02975013572722673</v>
+      </c>
+      <c r="K148">
+        <v>0.005567486979998648</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>560</v>
+      </c>
+      <c r="D149">
+        <v>0.01220254274085164</v>
+      </c>
+      <c r="E149">
+        <v>0.2348823130596429</v>
+      </c>
+      <c r="F149">
+        <v>560</v>
+      </c>
+      <c r="G149">
+        <v>0.01725590007845312</v>
+      </c>
+      <c r="H149">
+        <v>0.147651101462543</v>
+      </c>
+      <c r="I149">
+        <v>0.007696984801441431</v>
+      </c>
+      <c r="J149">
+        <v>0.03735540062189102</v>
+      </c>
+      <c r="K149">
+        <v>0.006203445955179632</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>493</v>
+      </c>
+      <c r="D150">
+        <v>0.0006755718495696783</v>
+      </c>
+      <c r="E150">
+        <v>0.1919402769999579</v>
+      </c>
+      <c r="F150">
+        <v>493</v>
+      </c>
+      <c r="G150">
+        <v>0.01535976701416075</v>
+      </c>
+      <c r="H150">
+        <v>0.1198418245185167</v>
+      </c>
+      <c r="I150">
+        <v>0.008408031659200788</v>
+      </c>
+      <c r="J150">
+        <v>0.02625552285462618</v>
+      </c>
+      <c r="K150">
+        <v>0.005466864793561399</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C151">
+        <v>8658</v>
+      </c>
+      <c r="E151">
+        <v>1.760083673754707</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>526</v>
+      </c>
+      <c r="D152">
+        <v>0.0004379729507490993</v>
+      </c>
+      <c r="E152">
+        <v>0.1977111879969016</v>
+      </c>
+      <c r="F152">
+        <v>526</v>
+      </c>
+      <c r="G152">
+        <v>0.01609291136264801</v>
+      </c>
+      <c r="H152">
+        <v>0.1233679094584659</v>
+      </c>
+      <c r="I152">
+        <v>0.00801845476962626</v>
+      </c>
+      <c r="J152">
+        <v>0.02703068091068417</v>
+      </c>
+      <c r="K152">
+        <v>0.005731197306886315</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>631</v>
+      </c>
+      <c r="D153">
+        <v>0.01688343298155814</v>
+      </c>
+      <c r="E153">
+        <v>0.2605417730519548</v>
+      </c>
+      <c r="F153">
+        <v>631</v>
+      </c>
+      <c r="G153">
+        <v>0.0192342868540436</v>
+      </c>
+      <c r="H153">
+        <v>0.1696655219420791</v>
+      </c>
+      <c r="I153">
+        <v>0.009522434091195464</v>
+      </c>
+      <c r="J153">
+        <v>0.03434970788657665</v>
+      </c>
+      <c r="K153">
+        <v>0.006889206939376891</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>633</v>
+      </c>
+      <c r="D154">
+        <v>0.01382215518970042</v>
+      </c>
+      <c r="E154">
+        <v>0.2654425699729472</v>
+      </c>
+      <c r="F154">
+        <v>633</v>
+      </c>
+      <c r="G154">
+        <v>0.01939642499201</v>
+      </c>
+      <c r="H154">
+        <v>0.165317939245142</v>
+      </c>
+      <c r="I154">
+        <v>0.00846456631552428</v>
+      </c>
+      <c r="J154">
+        <v>0.04371240234468132</v>
+      </c>
+      <c r="K154">
+        <v>0.007063896977342665</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>526</v>
+      </c>
+      <c r="D155">
+        <v>0.0006843457231298089</v>
+      </c>
+      <c r="E155">
+        <v>0.199397619930096</v>
+      </c>
+      <c r="F155">
+        <v>526</v>
+      </c>
+      <c r="G155">
+        <v>0.01624999893829226</v>
+      </c>
+      <c r="H155">
+        <v>0.1243222370976582</v>
+      </c>
+      <c r="I155">
+        <v>0.008655619574710727</v>
+      </c>
+      <c r="J155">
+        <v>0.02695493190549314</v>
+      </c>
+      <c r="K155">
+        <v>0.005732295685447752</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C156">
+        <v>8658</v>
+      </c>
+      <c r="E156">
+        <v>1.759551650029607</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>567</v>
+      </c>
+      <c r="D157">
+        <v>0.0004785945639014244</v>
+      </c>
+      <c r="E157">
+        <v>0.2146048749564216</v>
+      </c>
+      <c r="F157">
+        <v>567</v>
+      </c>
+      <c r="G157">
+        <v>0.01721219718456268</v>
+      </c>
+      <c r="H157">
+        <v>0.1339074157876894</v>
+      </c>
+      <c r="I157">
+        <v>0.008473153109662235</v>
+      </c>
+      <c r="J157">
+        <v>0.02996910410001874</v>
+      </c>
+      <c r="K157">
+        <v>0.00624328083358705</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>713</v>
+      </c>
+      <c r="D158">
+        <v>0.0171046833274886</v>
+      </c>
+      <c r="E158">
+        <v>0.2962989509105682</v>
+      </c>
+      <c r="F158">
+        <v>713</v>
+      </c>
+      <c r="G158">
+        <v>0.02240421366877854</v>
+      </c>
+      <c r="H158">
+        <v>0.1917179307201877</v>
+      </c>
+      <c r="I158">
+        <v>0.01146931108087301</v>
+      </c>
+      <c r="J158">
+        <v>0.03867318935226649</v>
+      </c>
+      <c r="K158">
+        <v>0.007892615743912756</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <v>742</v>
+      </c>
+      <c r="D159">
+        <v>0.015321503742598</v>
+      </c>
+      <c r="E159">
+        <v>0.3151492869947106</v>
+      </c>
+      <c r="F159">
+        <v>742</v>
+      </c>
+      <c r="G159">
+        <v>0.02306564874015749</v>
+      </c>
+      <c r="H159">
+        <v>0.1962213829392567</v>
+      </c>
+      <c r="I159">
+        <v>0.009579391684383154</v>
+      </c>
+      <c r="J159">
+        <v>0.05319228069856763</v>
+      </c>
+      <c r="K159">
+        <v>0.00823353452142328</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>567</v>
+      </c>
+      <c r="D160">
+        <v>0.0007494371384382248</v>
+      </c>
+      <c r="E160">
+        <v>0.222660955041647</v>
+      </c>
+      <c r="F160">
+        <v>567</v>
+      </c>
+      <c r="G160">
+        <v>0.01770490652415901</v>
+      </c>
+      <c r="H160">
+        <v>0.138631685404107</v>
+      </c>
+      <c r="I160">
+        <v>0.009347738930955529</v>
+      </c>
+      <c r="J160">
+        <v>0.03133972350042313</v>
+      </c>
+      <c r="K160">
+        <v>0.006345847737975419</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C161">
+        <v>8658</v>
+      </c>
+      <c r="E161">
+        <v>1.724042148212902</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>534</v>
+      </c>
+      <c r="D162">
+        <v>0.0004503128584474325</v>
+      </c>
+      <c r="E162">
+        <v>0.207382831024006</v>
+      </c>
+      <c r="F162">
+        <v>534</v>
+      </c>
+      <c r="G162">
+        <v>0.01650992268696427</v>
+      </c>
+      <c r="H162">
+        <v>0.1298113950761035</v>
+      </c>
+      <c r="I162">
+        <v>0.008392645046114922</v>
+      </c>
+      <c r="J162">
+        <v>0.02884459611959755</v>
+      </c>
+      <c r="K162">
+        <v>0.005994838662445545</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>594</v>
+      </c>
+      <c r="D163">
+        <v>0.01491755910683423</v>
+      </c>
+      <c r="E163">
+        <v>0.2508911329787225</v>
+      </c>
+      <c r="F163">
+        <v>594</v>
+      </c>
+      <c r="G163">
+        <v>0.01851780014112592</v>
+      </c>
+      <c r="H163">
+        <v>0.1621192174497992</v>
+      </c>
+      <c r="I163">
+        <v>0.01038823672570288</v>
+      </c>
+      <c r="J163">
+        <v>0.03305357461795211</v>
+      </c>
+      <c r="K163">
+        <v>0.006660780636593699</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>648</v>
+      </c>
+      <c r="D164">
+        <v>0.01388148672413081</v>
+      </c>
+      <c r="E164">
+        <v>0.2754422369180247</v>
+      </c>
+      <c r="F164">
+        <v>648</v>
+      </c>
+      <c r="G164">
+        <v>0.02042635169345886</v>
+      </c>
+      <c r="H164">
+        <v>0.1733180304290727</v>
+      </c>
+      <c r="I164">
+        <v>0.009266944252885878</v>
+      </c>
+      <c r="J164">
+        <v>0.04357863939367235</v>
+      </c>
+      <c r="K164">
+        <v>0.007136855158023536</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>534</v>
+      </c>
+      <c r="D165">
+        <v>0.0006941248429939151</v>
+      </c>
+      <c r="E165">
+        <v>0.2057095399359241</v>
+      </c>
+      <c r="F165">
+        <v>534</v>
+      </c>
+      <c r="G165">
+        <v>0.01624070876277983</v>
+      </c>
+      <c r="H165">
+        <v>0.1281510837143287</v>
+      </c>
+      <c r="I165">
+        <v>0.009049322339706123</v>
+      </c>
+      <c r="J165">
+        <v>0.02874632237944752</v>
+      </c>
+      <c r="K165">
+        <v>0.005804257816635072</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C166">
+        <v>8658</v>
+      </c>
+      <c r="E166">
+        <v>1.742307911859825</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>591</v>
+      </c>
+      <c r="D167">
+        <v>0.0004968396387994289</v>
+      </c>
+      <c r="E167">
+        <v>0.2238748261006549</v>
+      </c>
+      <c r="F167">
+        <v>591</v>
+      </c>
+      <c r="G167">
+        <v>0.01788287737872452</v>
+      </c>
+      <c r="H167">
+        <v>0.1400974636198953</v>
+      </c>
+      <c r="I167">
+        <v>0.008966782013885677</v>
+      </c>
+      <c r="J167">
+        <v>0.03087788331322372</v>
+      </c>
+      <c r="K167">
+        <v>0.006421801401302218</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>630</v>
+      </c>
+      <c r="D168">
+        <v>0.01576058764476329</v>
+      </c>
+      <c r="E168">
+        <v>0.2647181829670444</v>
+      </c>
+      <c r="F168">
+        <v>630</v>
+      </c>
+      <c r="G168">
+        <v>0.01941512618213892</v>
+      </c>
+      <c r="H168">
+        <v>0.1705007769633085</v>
+      </c>
+      <c r="I168">
+        <v>0.00963363959454</v>
+      </c>
+      <c r="J168">
+        <v>0.03724730364046991</v>
+      </c>
+      <c r="K168">
+        <v>0.006928926799446344</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>753</v>
+      </c>
+      <c r="D169">
+        <v>0.01519210624974221</v>
+      </c>
+      <c r="E169">
+        <v>0.3158343710238114</v>
+      </c>
+      <c r="F169">
+        <v>753</v>
+      </c>
+      <c r="G169">
+        <v>0.02293317660223693</v>
+      </c>
+      <c r="H169">
+        <v>0.1957254022127017</v>
+      </c>
+      <c r="I169">
+        <v>0.009928818442858756</v>
+      </c>
+      <c r="J169">
+        <v>0.05368988250847906</v>
+      </c>
+      <c r="K169">
+        <v>0.00835999648552388</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>591</v>
+      </c>
+      <c r="D170">
+        <v>0.0007637059316039085</v>
+      </c>
+      <c r="E170">
+        <v>0.2235327790258452</v>
+      </c>
+      <c r="F170">
+        <v>591</v>
+      </c>
+      <c r="G170">
+        <v>0.01788271439727396</v>
+      </c>
+      <c r="H170">
+        <v>0.1398288884665817</v>
+      </c>
+      <c r="I170">
+        <v>0.009426508331671357</v>
+      </c>
+      <c r="J170">
+        <v>0.03057377203367651</v>
+      </c>
+      <c r="K170">
+        <v>0.006350420066155493</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C171">
+        <v>8658</v>
+      </c>
+      <c r="E171">
+        <v>1.757892882917076</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>655</v>
+      </c>
+      <c r="D172">
+        <v>0.0005575154209509492</v>
+      </c>
+      <c r="E172">
+        <v>0.2461886029923335</v>
+      </c>
+      <c r="F172">
+        <v>655</v>
+      </c>
+      <c r="G172">
+        <v>0.01978494343347847</v>
+      </c>
+      <c r="H172">
+        <v>0.154487605788745</v>
+      </c>
+      <c r="I172">
+        <v>0.009403474978171289</v>
+      </c>
+      <c r="J172">
+        <v>0.03364897333085537</v>
+      </c>
+      <c r="K172">
+        <v>0.007115853833965957</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173">
+        <v>840</v>
+      </c>
+      <c r="D173">
+        <v>0.02025053964462131</v>
+      </c>
+      <c r="E173">
+        <v>0.3446334899635985</v>
+      </c>
+      <c r="F173">
+        <v>840</v>
+      </c>
+      <c r="G173">
+        <v>0.02548146212939173</v>
+      </c>
+      <c r="H173">
+        <v>0.2258345653535798</v>
+      </c>
+      <c r="I173">
+        <v>0.0126573508605361</v>
+      </c>
+      <c r="J173">
+        <v>0.04395960748661309</v>
+      </c>
+      <c r="K173">
+        <v>0.009033744921907783</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>694</v>
+      </c>
+      <c r="D174">
+        <v>0.01729705941397697</v>
+      </c>
+      <c r="E174">
+        <v>0.2957043899223208</v>
+      </c>
+      <c r="F174">
+        <v>694</v>
+      </c>
+      <c r="G174">
+        <v>0.02148250979371369</v>
+      </c>
+      <c r="H174">
+        <v>0.1850561797618866</v>
+      </c>
+      <c r="I174">
+        <v>0.01051958522293717</v>
+      </c>
+      <c r="J174">
+        <v>0.04773463099263608</v>
+      </c>
+      <c r="K174">
+        <v>0.007637106697075069</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>655</v>
+      </c>
+      <c r="D175">
+        <v>0.0008529537590220571</v>
+      </c>
+      <c r="E175">
+        <v>0.248714612913318</v>
+      </c>
+      <c r="F175">
+        <v>655</v>
+      </c>
+      <c r="G175">
+        <v>0.01962364616338164</v>
+      </c>
+      <c r="H175">
+        <v>0.1568554969271645</v>
+      </c>
+      <c r="I175">
+        <v>0.01010119880083948</v>
+      </c>
+      <c r="J175">
+        <v>0.03357386449351907</v>
+      </c>
+      <c r="K175">
+        <v>0.007056373986415565</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C176">
+        <v>8658</v>
+      </c>
+      <c r="E176">
+        <v>1.773660619044676</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>652</v>
+      </c>
+      <c r="D177">
+        <v>0.0005564874736592174</v>
+      </c>
+      <c r="E177">
+        <v>0.245153347030282</v>
+      </c>
+      <c r="F177">
+        <v>652</v>
+      </c>
+      <c r="G177">
+        <v>0.01983255823142827</v>
+      </c>
+      <c r="H177">
+        <v>0.1549047207226977</v>
+      </c>
+      <c r="I177">
+        <v>0.008661036030389369</v>
+      </c>
+      <c r="J177">
+        <v>0.03297649149317294</v>
+      </c>
+      <c r="K177">
+        <v>0.007099800859577954</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <v>800</v>
+      </c>
+      <c r="D178">
+        <v>0.01827849063556641</v>
+      </c>
+      <c r="E178">
+        <v>0.3242367079947144</v>
+      </c>
+      <c r="F178">
+        <v>800</v>
+      </c>
+      <c r="G178">
+        <v>0.02446625649463385</v>
+      </c>
+      <c r="H178">
+        <v>0.2118810646934435</v>
+      </c>
+      <c r="I178">
+        <v>0.01123480615206063</v>
+      </c>
+      <c r="J178">
+        <v>0.04141152766533196</v>
+      </c>
+      <c r="K178">
+        <v>0.008667590096592903</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>746</v>
+      </c>
+      <c r="D179">
+        <v>0.01673680311068892</v>
+      </c>
+      <c r="E179">
+        <v>0.3099099289393052</v>
+      </c>
+      <c r="F179">
+        <v>746</v>
+      </c>
+      <c r="G179">
+        <v>0.02297430019825697</v>
+      </c>
+      <c r="H179">
+        <v>0.1974659308325499</v>
+      </c>
+      <c r="I179">
+        <v>0.009596138494089246</v>
+      </c>
+      <c r="J179">
+        <v>0.04681925906334072</v>
+      </c>
+      <c r="K179">
+        <v>0.008177786832675338</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>652</v>
+      </c>
+      <c r="D180">
+        <v>0.0008616666309535503</v>
+      </c>
+      <c r="E180">
+        <v>0.2435563229955733</v>
+      </c>
+      <c r="F180">
+        <v>652</v>
+      </c>
+      <c r="G180">
+        <v>0.0198277736781165</v>
+      </c>
+      <c r="H180">
+        <v>0.1522177415899932</v>
+      </c>
+      <c r="I180">
+        <v>0.009612151887267828</v>
+      </c>
+      <c r="J180">
+        <v>0.03299832076299936</v>
+      </c>
+      <c r="K180">
+        <v>0.007112266612239182</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C181">
+        <v>8658</v>
+      </c>
+      <c r="E181">
+        <v>1.776773970923387</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>637</v>
+      </c>
+      <c r="D182">
+        <v>0.0005191229283809662</v>
+      </c>
+      <c r="E182">
+        <v>0.2362554490100592</v>
+      </c>
+      <c r="F182">
+        <v>637</v>
+      </c>
+      <c r="G182">
+        <v>0.01923387590795755</v>
+      </c>
+      <c r="H182">
+        <v>0.1484063734533265</v>
+      </c>
+      <c r="I182">
+        <v>0.008975763688795269</v>
+      </c>
+      <c r="J182">
+        <v>0.03147194010671228</v>
+      </c>
+      <c r="K182">
+        <v>0.006958046928048134</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>789</v>
+      </c>
+      <c r="D183">
+        <v>0.01914955046959221</v>
+      </c>
+      <c r="E183">
+        <v>0.321717650978826</v>
+      </c>
+      <c r="F183">
+        <v>789</v>
+      </c>
+      <c r="G183">
+        <v>0.02420634764712304</v>
+      </c>
+      <c r="H183">
+        <v>0.2089234915329143</v>
+      </c>
+      <c r="I183">
+        <v>0.01248281204607338</v>
+      </c>
+      <c r="J183">
+        <v>0.04122566978912801</v>
+      </c>
+      <c r="K183">
+        <v>0.008673655916936696</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>699</v>
+      </c>
+      <c r="D184">
+        <v>0.01617046445608139</v>
+      </c>
+      <c r="E184">
+        <v>0.2938403619918972</v>
+      </c>
+      <c r="F184">
+        <v>699</v>
+      </c>
+      <c r="G184">
+        <v>0.02150373510085046</v>
+      </c>
+      <c r="H184">
+        <v>0.1845108373090625</v>
+      </c>
+      <c r="I184">
+        <v>0.009867662563920021</v>
+      </c>
+      <c r="J184">
+        <v>0.04672669211868197</v>
+      </c>
+      <c r="K184">
+        <v>0.007755740080028772</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>637</v>
+      </c>
+      <c r="D185">
+        <v>0.0008183254394680262</v>
+      </c>
+      <c r="E185">
+        <v>0.2406471569556743</v>
+      </c>
+      <c r="F185">
+        <v>637</v>
+      </c>
+      <c r="G185">
+        <v>0.01935760816559196</v>
+      </c>
+      <c r="H185">
+        <v>0.1505725075257942</v>
+      </c>
+      <c r="I185">
+        <v>0.009843369014561176</v>
+      </c>
+      <c r="J185">
+        <v>0.03266351949423552</v>
+      </c>
+      <c r="K185">
+        <v>0.007014859816990793</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C186">
+        <v>8658</v>
+      </c>
+      <c r="E186">
+        <v>1.698987809708342</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>587</v>
+      </c>
+      <c r="D187">
+        <v>0.0004692386137321591</v>
+      </c>
+      <c r="E187">
+        <v>0.2200904369819909</v>
+      </c>
+      <c r="F187">
+        <v>587</v>
+      </c>
+      <c r="G187">
+        <v>0.01779208099469543</v>
+      </c>
+      <c r="H187">
+        <v>0.1382176739862189</v>
+      </c>
+      <c r="I187">
+        <v>0.007972286897711456</v>
+      </c>
+      <c r="J187">
+        <v>0.03004335216246545</v>
+      </c>
+      <c r="K187">
+        <v>0.006457256036810577</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188">
+        <v>637</v>
+      </c>
+      <c r="D188">
+        <v>0.01398803957272321</v>
+      </c>
+      <c r="E188">
+        <v>0.2601361999986693</v>
+      </c>
+      <c r="F188">
+        <v>637</v>
+      </c>
+      <c r="G188">
+        <v>0.01939563220366836</v>
+      </c>
+      <c r="H188">
+        <v>0.1672978543210775</v>
+      </c>
+      <c r="I188">
+        <v>0.009452896192669868</v>
+      </c>
+      <c r="J188">
+        <v>0.03588788863271475</v>
+      </c>
+      <c r="K188">
+        <v>0.006958772311918437</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189">
+        <v>642</v>
+      </c>
+      <c r="D189">
+        <v>0.01314077700953931</v>
+      </c>
+      <c r="E189">
+        <v>0.2705811470514163</v>
+      </c>
+      <c r="F189">
+        <v>642</v>
+      </c>
+      <c r="G189">
+        <v>0.01982068899087608</v>
+      </c>
+      <c r="H189">
+        <v>0.1689814048586413</v>
+      </c>
+      <c r="I189">
+        <v>0.008638150407932699</v>
+      </c>
+      <c r="J189">
+        <v>0.04434185312129557</v>
+      </c>
+      <c r="K189">
+        <v>0.007172522484324872</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>587</v>
+      </c>
+      <c r="D190">
+        <v>0.0007415231084451079</v>
+      </c>
+      <c r="E190">
+        <v>0.2202064759330824</v>
+      </c>
+      <c r="F190">
+        <v>587</v>
+      </c>
+      <c r="G190">
+        <v>0.01775382505729795</v>
+      </c>
+      <c r="H190">
+        <v>0.1376938207540661</v>
+      </c>
+      <c r="I190">
+        <v>0.008888606098480523</v>
+      </c>
+      <c r="J190">
+        <v>0.0301425006473437</v>
+      </c>
+      <c r="K190">
+        <v>0.006377487210556865</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C191">
+        <v>8658</v>
+      </c>
+      <c r="E191">
+        <v>1.467429824988358</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>644</v>
+      </c>
+      <c r="D192">
+        <v>0.0005257813027128577</v>
+      </c>
+      <c r="E192">
+        <v>0.2375819929875433</v>
+      </c>
+      <c r="F192">
+        <v>644</v>
+      </c>
+      <c r="G192">
+        <v>0.0195202948525548</v>
+      </c>
+      <c r="H192">
+        <v>0.149682980380021</v>
+      </c>
+      <c r="I192">
+        <v>0.008024032111279666</v>
+      </c>
+      <c r="J192">
+        <v>0.03196630615275353</v>
+      </c>
+      <c r="K192">
+        <v>0.007039966294541955</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193">
+        <v>1003</v>
+      </c>
+      <c r="D193">
+        <v>0.02579819841776043</v>
+      </c>
+      <c r="E193">
+        <v>0.411062333965674</v>
+      </c>
+      <c r="F193">
+        <v>1003</v>
+      </c>
+      <c r="G193">
+        <v>0.03059247729834169</v>
+      </c>
+      <c r="H193">
+        <v>0.2689280682243407</v>
+      </c>
+      <c r="I193">
+        <v>0.0156098052393645</v>
+      </c>
+      <c r="J193">
+        <v>0.05151713045779616</v>
+      </c>
+      <c r="K193">
+        <v>0.01093070697970688</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>657</v>
+      </c>
+      <c r="D194">
+        <v>0.01500296569429338</v>
+      </c>
+      <c r="E194">
+        <v>0.2653608559630811</v>
+      </c>
+      <c r="F194">
+        <v>657</v>
+      </c>
+      <c r="G194">
+        <v>0.02015950833447278</v>
+      </c>
+      <c r="H194">
+        <v>0.1709277830086648</v>
+      </c>
+      <c r="I194">
+        <v>0.008061339263804257</v>
+      </c>
+      <c r="J194">
+        <v>0.03722368739545345</v>
+      </c>
+      <c r="K194">
+        <v>0.007171367993578315</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>644</v>
+      </c>
+      <c r="D195">
+        <v>0.0008447786094620824</v>
+      </c>
+      <c r="E195">
+        <v>0.2388682209420949</v>
+      </c>
+      <c r="F195">
+        <v>644</v>
+      </c>
+      <c r="G195">
+        <v>0.01960600400343537</v>
+      </c>
+      <c r="H195">
+        <v>0.1503521545091644</v>
+      </c>
+      <c r="I195">
+        <v>0.008536563720554113</v>
+      </c>
+      <c r="J195">
+        <v>0.03185457841027528</v>
+      </c>
+      <c r="K195">
+        <v>0.007001817808486521</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C196">
+        <v>8658</v>
+      </c>
+      <c r="E196">
+        <v>1.704946002806537</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>633</v>
+      </c>
+      <c r="D197">
+        <v>0.0005330514395609498</v>
+      </c>
+      <c r="E197">
+        <v>0.2446307939244434</v>
+      </c>
+      <c r="F197">
+        <v>633</v>
+      </c>
+      <c r="G197">
+        <v>0.01897014258429408</v>
+      </c>
+      <c r="H197">
+        <v>0.1543408008292317</v>
+      </c>
+      <c r="I197">
+        <v>0.009712968720123172</v>
+      </c>
+      <c r="J197">
+        <v>0.03383988316636533</v>
+      </c>
+      <c r="K197">
+        <v>0.006879799067974091</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>762</v>
+      </c>
+      <c r="D198">
+        <v>0.0183664420619607</v>
+      </c>
+      <c r="E198">
+        <v>0.3173440400278196</v>
+      </c>
+      <c r="F198">
+        <v>762</v>
+      </c>
+      <c r="G198">
+        <v>0.02317697764374316</v>
+      </c>
+      <c r="H198">
+        <v>0.2032272921642289</v>
+      </c>
+      <c r="I198">
+        <v>0.01343511324375868</v>
+      </c>
+      <c r="J198">
+        <v>0.04405673779547215</v>
+      </c>
+      <c r="K198">
+        <v>0.008268801146186888</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>801</v>
+      </c>
+      <c r="D199">
+        <v>0.01694225333631039</v>
+      </c>
+      <c r="E199">
+        <v>0.3400062540313229</v>
+      </c>
+      <c r="F199">
+        <v>801</v>
+      </c>
+      <c r="G199">
+        <v>0.0243321149609983</v>
+      </c>
+      <c r="H199">
+        <v>0.2097474626498297</v>
+      </c>
+      <c r="I199">
+        <v>0.01193598425015807</v>
+      </c>
+      <c r="J199">
+        <v>0.0585219943895936</v>
+      </c>
+      <c r="K199">
+        <v>0.00884543324355036</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>633</v>
+      </c>
+      <c r="D200">
+        <v>0.0007943799719214439</v>
+      </c>
+      <c r="E200">
+        <v>0.2390476140426472</v>
+      </c>
+      <c r="F200">
+        <v>633</v>
+      </c>
+      <c r="G200">
+        <v>0.01909268088638783</v>
+      </c>
+      <c r="H200">
+        <v>0.1481858032057062</v>
+      </c>
+      <c r="I200">
+        <v>0.0106016481295228</v>
+      </c>
+      <c r="J200">
+        <v>0.03342077927663922</v>
+      </c>
+      <c r="K200">
+        <v>0.006901274318806827</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C201">
+        <v>8658</v>
+      </c>
+      <c r="E201">
+        <v>1.727247197180986</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>558</v>
+      </c>
+      <c r="D202">
+        <v>0.0004809936508536339</v>
+      </c>
+      <c r="E202">
+        <v>0.2162034279899672</v>
+      </c>
+      <c r="F202">
+        <v>558</v>
+      </c>
+      <c r="G202">
+        <v>0.01705576723907143</v>
+      </c>
+      <c r="H202">
+        <v>0.132849232875742</v>
+      </c>
+      <c r="I202">
+        <v>0.00998274446465075</v>
+      </c>
+      <c r="J202">
+        <v>0.03108625975437462</v>
+      </c>
+      <c r="K202">
+        <v>0.006245868629775941</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203">
+        <v>643</v>
+      </c>
+      <c r="D203">
+        <v>0.01749950181692839</v>
+      </c>
+      <c r="E203">
+        <v>0.2765113690402359</v>
+      </c>
+      <c r="F203">
+        <v>643</v>
+      </c>
+      <c r="G203">
+        <v>0.02041215403005481</v>
+      </c>
+      <c r="H203">
+        <v>0.1784855293808505</v>
+      </c>
+      <c r="I203">
+        <v>0.01214856549631804</v>
+      </c>
+      <c r="J203">
+        <v>0.03679947799537331</v>
+      </c>
+      <c r="K203">
+        <v>0.007068954291753471</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>717</v>
+      </c>
+      <c r="D204">
+        <v>0.01774605095852166</v>
+      </c>
+      <c r="E204">
+        <v>0.3125228609424084</v>
+      </c>
+      <c r="F204">
+        <v>717</v>
+      </c>
+      <c r="G204">
+        <v>0.02217837830539793</v>
+      </c>
+      <c r="H204">
+        <v>0.1929028055164963</v>
+      </c>
+      <c r="I204">
+        <v>0.01189892750699073</v>
+      </c>
+      <c r="J204">
+        <v>0.05341179296374321</v>
+      </c>
+      <c r="K204">
+        <v>0.007988273748196661</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>558</v>
+      </c>
+      <c r="D205">
+        <v>0.0007257178658619523</v>
+      </c>
+      <c r="E205">
+        <v>0.2128976549720392</v>
+      </c>
+      <c r="F205">
+        <v>558</v>
+      </c>
+      <c r="G205">
+        <v>0.01698496728204191</v>
+      </c>
+      <c r="H205">
+        <v>0.1301492023048922</v>
+      </c>
+      <c r="I205">
+        <v>0.01087035180535167</v>
+      </c>
+      <c r="J205">
+        <v>0.0303849820047617</v>
+      </c>
+      <c r="K205">
+        <v>0.006066857022233307</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C206">
+        <v>8658</v>
+      </c>
+      <c r="E206">
+        <v>1.742396043031476</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>594</v>
+      </c>
+      <c r="D207">
+        <v>0.0004943446256220341</v>
+      </c>
+      <c r="E207">
+        <v>0.2190155270509422</v>
+      </c>
+      <c r="F207">
+        <v>594</v>
+      </c>
+      <c r="G207">
+        <v>0.01767964393366128</v>
+      </c>
+      <c r="H207">
+        <v>0.1378784079570323</v>
+      </c>
+      <c r="I207">
+        <v>0.007915787282399833</v>
+      </c>
+      <c r="J207">
+        <v>0.02984063443727791</v>
+      </c>
+      <c r="K207">
+        <v>0.006361740990541875</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208">
+        <v>765</v>
+      </c>
+      <c r="D208">
+        <v>0.01834840979427099</v>
+      </c>
+      <c r="E208">
+        <v>0.3109835339710116</v>
+      </c>
+      <c r="F208">
+        <v>765</v>
+      </c>
+      <c r="G208">
+        <v>0.02325785998255014</v>
+      </c>
+      <c r="H208">
+        <v>0.2028694982873276</v>
+      </c>
+      <c r="I208">
+        <v>0.01075889705680311</v>
+      </c>
+      <c r="J208">
+        <v>0.04055249004159123</v>
+      </c>
+      <c r="K208">
+        <v>0.008308570133522153</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209">
+        <v>676</v>
+      </c>
+      <c r="D209">
+        <v>0.01529132551513612</v>
+      </c>
+      <c r="E209">
+        <v>0.2755274940282106</v>
+      </c>
+      <c r="F209">
+        <v>676</v>
+      </c>
+      <c r="G209">
+        <v>0.02010046283248812</v>
+      </c>
+      <c r="H209">
+        <v>0.1737302539404482</v>
+      </c>
+      <c r="I209">
+        <v>0.008755125221796334</v>
+      </c>
+      <c r="J209">
+        <v>0.04377977701369673</v>
+      </c>
+      <c r="K209">
+        <v>0.007252319250255823</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210">
+        <v>594</v>
+      </c>
+      <c r="D210">
+        <v>0.0007424002978950739</v>
+      </c>
+      <c r="E210">
+        <v>0.2172197449253872</v>
+      </c>
+      <c r="F210">
+        <v>594</v>
+      </c>
+      <c r="G210">
+        <v>0.01754294626880437</v>
+      </c>
+      <c r="H210">
+        <v>0.1362756176386029</v>
+      </c>
+      <c r="I210">
+        <v>0.008484159945510328</v>
+      </c>
+      <c r="J210">
+        <v>0.0295073400484398</v>
+      </c>
+      <c r="K210">
+        <v>0.006255940650589764</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C211">
+        <v>8658</v>
+      </c>
+      <c r="E211">
+        <v>1.697088370914571</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>557</v>
+      </c>
+      <c r="D212">
+        <v>0.0004509232239797711</v>
+      </c>
+      <c r="E212">
+        <v>0.2029098540078849</v>
+      </c>
+      <c r="F212">
+        <v>557</v>
+      </c>
+      <c r="G212">
+        <v>0.01629364432301372</v>
+      </c>
+      <c r="H212">
+        <v>0.125686792540364</v>
+      </c>
+      <c r="I212">
+        <v>0.008138436824083328</v>
+      </c>
+      <c r="J212">
+        <v>0.02900235773995519</v>
+      </c>
+      <c r="K212">
+        <v>0.005895370151847601</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <v>883</v>
+      </c>
+      <c r="D213">
+        <v>0.02346331987064332</v>
+      </c>
+      <c r="E213">
+        <v>0.3697752769803628</v>
+      </c>
+      <c r="F213">
+        <v>883</v>
+      </c>
+      <c r="G213">
+        <v>0.02751681709196419</v>
+      </c>
+      <c r="H213">
+        <v>0.239570671110414</v>
+      </c>
+      <c r="I213">
+        <v>0.01766752498224378</v>
+      </c>
+      <c r="J213">
+        <v>0.04569476656615734</v>
+      </c>
+      <c r="K213">
+        <v>0.009644452133215964</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>585</v>
+      </c>
+      <c r="D214">
+        <v>0.01461242674849927</v>
+      </c>
+      <c r="E214">
+        <v>0.2430358290439472</v>
+      </c>
+      <c r="F214">
+        <v>585</v>
+      </c>
+      <c r="G214">
+        <v>0.01813307881820947</v>
+      </c>
+      <c r="H214">
+        <v>0.1548042014474049</v>
+      </c>
+      <c r="I214">
+        <v>0.009075063862837851</v>
+      </c>
+      <c r="J214">
+        <v>0.03500354127027094</v>
+      </c>
+      <c r="K214">
+        <v>0.006481192191131413</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215">
+        <v>557</v>
+      </c>
+      <c r="D215">
+        <v>0.0007370318053290248</v>
+      </c>
+      <c r="E215">
+        <v>0.2133683899883181</v>
+      </c>
+      <c r="F215">
+        <v>557</v>
+      </c>
+      <c r="G215">
+        <v>0.01718924788292497</v>
+      </c>
+      <c r="H215">
+        <v>0.1327008926309645</v>
+      </c>
+      <c r="I215">
+        <v>0.009275951888412237</v>
+      </c>
+      <c r="J215">
+        <v>0.02933666808530688</v>
+      </c>
+      <c r="K215">
+        <v>0.006172297522425652</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C216">
+        <v>8658</v>
+      </c>
+      <c r="E216">
+        <v>1.48495074105449</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>524</v>
+      </c>
+      <c r="D217">
+        <v>0.0004486206453293562</v>
+      </c>
+      <c r="E217">
+        <v>0.2025643530068919</v>
+      </c>
+      <c r="F217">
+        <v>524</v>
+      </c>
+      <c r="G217">
+        <v>0.01631743914913386</v>
+      </c>
+      <c r="H217">
+        <v>0.1273865005932748</v>
+      </c>
+      <c r="I217">
+        <v>0.008243362419307232</v>
+      </c>
+      <c r="J217">
+        <v>0.02712004573550075</v>
+      </c>
+      <c r="K217">
+        <v>0.005805770168080926</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218">
+        <v>720</v>
+      </c>
+      <c r="D218">
+        <v>0.01767566159833223</v>
+      </c>
+      <c r="E218">
+        <v>0.2983182129682973</v>
+      </c>
+      <c r="F218">
+        <v>720</v>
+      </c>
+      <c r="G218">
+        <v>0.02209086332004517</v>
+      </c>
+      <c r="H218">
+        <v>0.1940685581648722</v>
+      </c>
+      <c r="I218">
+        <v>0.01187324710190296</v>
+      </c>
+      <c r="J218">
+        <v>0.0385277047753334</v>
+      </c>
+      <c r="K218">
+        <v>0.007822892279364169</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219">
+        <v>727</v>
+      </c>
+      <c r="D219">
+        <v>0.01629882946144789</v>
+      </c>
+      <c r="E219">
+        <v>0.3064341139979661</v>
+      </c>
+      <c r="F219">
+        <v>727</v>
+      </c>
+      <c r="G219">
+        <v>0.02225082111544907</v>
+      </c>
+      <c r="H219">
+        <v>0.1923569599166512</v>
+      </c>
+      <c r="I219">
+        <v>0.009464582428336143</v>
+      </c>
+      <c r="J219">
+        <v>0.05006261356174946</v>
+      </c>
+      <c r="K219">
+        <v>0.008046020288020372</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220">
+        <v>524</v>
+      </c>
+      <c r="D220">
+        <v>0.0006704423576593399</v>
+      </c>
+      <c r="E220">
+        <v>0.1979759220266715</v>
+      </c>
+      <c r="F220">
+        <v>524</v>
+      </c>
+      <c r="G220">
+        <v>0.01580387109424919</v>
+      </c>
+      <c r="H220">
+        <v>0.1242085322737694</v>
+      </c>
+      <c r="I220">
+        <v>0.008527575526386499</v>
+      </c>
+      <c r="J220">
+        <v>0.02642912836745381</v>
+      </c>
+      <c r="K220">
+        <v>0.005684511619620025</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C221">
+        <v>8658</v>
+      </c>
+      <c r="E221">
+        <v>1.563063259935006</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>619</v>
+      </c>
+      <c r="D222">
+        <v>0.0005212142132222652</v>
+      </c>
+      <c r="E222">
+        <v>0.2322893689852208</v>
+      </c>
+      <c r="F222">
+        <v>619</v>
+      </c>
+      <c r="G222">
+        <v>0.01888576045166701</v>
+      </c>
+      <c r="H222">
+        <v>0.1452036150731146</v>
+      </c>
+      <c r="I222">
+        <v>0.009520914521999657</v>
+      </c>
+      <c r="J222">
+        <v>0.03130310564301908</v>
+      </c>
+      <c r="K222">
+        <v>0.006749663734808564</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>837</v>
+      </c>
+      <c r="D223">
+        <v>0.02011578634846956</v>
+      </c>
+      <c r="E223">
+        <v>0.3375052759656683</v>
+      </c>
+      <c r="F223">
+        <v>837</v>
+      </c>
+      <c r="G223">
+        <v>0.02525385050103068</v>
+      </c>
+      <c r="H223">
+        <v>0.2195861464133486</v>
+      </c>
+      <c r="I223">
+        <v>0.01358357770368457</v>
+      </c>
+      <c r="J223">
+        <v>0.04305179161019623</v>
+      </c>
+      <c r="K223">
+        <v>0.008910325122997165</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>669</v>
+      </c>
+      <c r="D224">
+        <v>0.01651369128376245</v>
+      </c>
+      <c r="E224">
+        <v>0.2825232300674543</v>
+      </c>
+      <c r="F224">
+        <v>669</v>
+      </c>
+      <c r="G224">
+        <v>0.02061501052230597</v>
+      </c>
+      <c r="H224">
+        <v>0.1759688233723864</v>
+      </c>
+      <c r="I224">
+        <v>0.009820733568631113</v>
+      </c>
+      <c r="J224">
+        <v>0.04656623757909983</v>
+      </c>
+      <c r="K224">
+        <v>0.007357474183663726</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <v>619</v>
+      </c>
+      <c r="D225">
+        <v>0.0007828586967661977</v>
+      </c>
+      <c r="E225">
+        <v>0.2310072989203036</v>
+      </c>
+      <c r="F225">
+        <v>619</v>
+      </c>
+      <c r="G225">
+        <v>0.01890402904246002</v>
+      </c>
+      <c r="H225">
+        <v>0.1437759263208136</v>
+      </c>
+      <c r="I225">
+        <v>0.009814348071813583</v>
+      </c>
+      <c r="J225">
+        <v>0.03154916595667601</v>
+      </c>
+      <c r="K225">
+        <v>0.006649753777310252</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C226">
+        <v>8658</v>
+      </c>
+      <c r="E226">
+        <v>1.430550041957758</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>657</v>
+      </c>
+      <c r="D227">
+        <v>0.0005214432021602988</v>
+      </c>
+      <c r="E227">
+        <v>0.2391266070771962</v>
+      </c>
+      <c r="F227">
+        <v>657</v>
+      </c>
+      <c r="G227">
+        <v>0.01939123088959605</v>
+      </c>
+      <c r="H227">
+        <v>0.1490793513366953</v>
+      </c>
+      <c r="I227">
+        <v>0.009403112926520407</v>
+      </c>
+      <c r="J227">
+        <v>0.03291453258134425</v>
+      </c>
+      <c r="K227">
+        <v>0.007037315517663956</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C228">
+        <v>854</v>
+      </c>
+      <c r="D228">
+        <v>0.02034894470125437</v>
+      </c>
+      <c r="E228">
+        <v>0.3398422949248925</v>
+      </c>
+      <c r="F228">
+        <v>854</v>
+      </c>
+      <c r="G228">
+        <v>0.02538902463857085</v>
+      </c>
+      <c r="H228">
+        <v>0.2188379250001162</v>
+      </c>
+      <c r="I228">
+        <v>0.01258515426889062</v>
+      </c>
+      <c r="J228">
+        <v>0.04626068531069905</v>
+      </c>
+      <c r="K228">
+        <v>0.009163104230538011</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229">
+        <v>734</v>
+      </c>
+      <c r="D229">
+        <v>0.01825252885464579</v>
+      </c>
+      <c r="E229">
+        <v>0.3264437139732763</v>
+      </c>
+      <c r="F229">
+        <v>734</v>
+      </c>
+      <c r="G229">
+        <v>0.02394131140317768</v>
+      </c>
+      <c r="H229">
+        <v>0.2049937756964937</v>
+      </c>
+      <c r="I229">
+        <v>0.01087399129755795</v>
+      </c>
+      <c r="J229">
+        <v>0.05240114231128246</v>
+      </c>
+      <c r="K229">
+        <v>0.00845992611721158</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230">
+        <v>657</v>
+      </c>
+      <c r="D230">
+        <v>0.0008431233000010252</v>
+      </c>
+      <c r="E230">
+        <v>0.2466652520233765</v>
+      </c>
+      <c r="F230">
+        <v>657</v>
+      </c>
+      <c r="G230">
+        <v>0.01988322590477765</v>
+      </c>
+      <c r="H230">
+        <v>0.1531757924240083</v>
+      </c>
+      <c r="I230">
+        <v>0.01044876629021019</v>
+      </c>
+      <c r="J230">
+        <v>0.03423044772353023</v>
+      </c>
+      <c r="K230">
+        <v>0.007124432944692671</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C231">
+        <v>8658</v>
+      </c>
+      <c r="E231">
+        <v>1.760616297833622</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>587</v>
+      </c>
+      <c r="D232">
+        <v>0.0005080742994323373</v>
+      </c>
+      <c r="E232">
+        <v>0.2224347000010312</v>
+      </c>
+      <c r="F232">
+        <v>587</v>
+      </c>
+      <c r="G232">
+        <v>0.01798117475118488</v>
+      </c>
+      <c r="H232">
+        <v>0.1394363960716873</v>
+      </c>
+      <c r="I232">
+        <v>0.008596442290581763</v>
+      </c>
+      <c r="J232">
+        <v>0.03055780497379601</v>
+      </c>
+      <c r="K232">
+        <v>0.00635932432487607</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233">
+        <v>777</v>
+      </c>
+      <c r="D233">
+        <v>0.01795490167569369</v>
+      </c>
+      <c r="E233">
+        <v>0.3268927610479295</v>
+      </c>
+      <c r="F233">
+        <v>777</v>
+      </c>
+      <c r="G233">
+        <v>0.02402293786872178</v>
+      </c>
+      <c r="H233">
+        <v>0.2130465630907565</v>
+      </c>
+      <c r="I233">
+        <v>0.01199516991619021</v>
+      </c>
+      <c r="J233">
+        <v>0.04341451404616237</v>
+      </c>
+      <c r="K233">
+        <v>0.008448407170362771</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234">
+        <v>728</v>
+      </c>
+      <c r="D234">
+        <v>0.01589539577253163</v>
+      </c>
+      <c r="E234">
+        <v>0.3065545249264687</v>
+      </c>
+      <c r="F234">
+        <v>728</v>
+      </c>
+      <c r="G234">
+        <v>0.02237874991260469</v>
+      </c>
+      <c r="H234">
+        <v>0.191672992776148</v>
+      </c>
+      <c r="I234">
+        <v>0.01071197423152626</v>
+      </c>
+      <c r="J234">
+        <v>0.04947819258086383</v>
+      </c>
+      <c r="K234">
+        <v>0.007993221050128341</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235">
+        <v>587</v>
+      </c>
+      <c r="D235">
+        <v>0.0007570412708446383</v>
+      </c>
+      <c r="E235">
+        <v>0.2186375010060146</v>
+      </c>
+      <c r="F235">
+        <v>587</v>
+      </c>
+      <c r="G235">
+        <v>0.01749601552728564</v>
+      </c>
+      <c r="H235">
+        <v>0.1370318772969767</v>
+      </c>
+      <c r="I235">
+        <v>0.009367045830003917</v>
+      </c>
+      <c r="J235">
+        <v>0.02937314263544977</v>
+      </c>
+      <c r="K235">
+        <v>0.006265566218644381</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C236">
+        <v>8658</v>
+      </c>
+      <c r="E236">
+        <v>1.743334363098256</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>634</v>
+      </c>
+      <c r="D237">
+        <v>0.0005121278809383512</v>
+      </c>
+      <c r="E237">
+        <v>0.2355842740507796</v>
+      </c>
+      <c r="F237">
+        <v>634</v>
+      </c>
+      <c r="G237">
+        <v>0.01887189864646643</v>
+      </c>
+      <c r="H237">
+        <v>0.1474641332169995</v>
+      </c>
+      <c r="I237">
+        <v>0.009567038505338132</v>
+      </c>
+      <c r="J237">
+        <v>0.03246392752043903</v>
+      </c>
+      <c r="K237">
+        <v>0.006715863361023366</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>798</v>
+      </c>
+      <c r="D238">
+        <v>0.01985827984753996</v>
+      </c>
+      <c r="E238">
+        <v>0.3280936089577153</v>
+      </c>
+      <c r="F238">
+        <v>798</v>
+      </c>
+      <c r="G238">
+        <v>0.02419973036739975</v>
+      </c>
+      <c r="H238">
+        <v>0.2136155068874359</v>
+      </c>
+      <c r="I238">
+        <v>0.01415987871587276</v>
+      </c>
+      <c r="J238">
+        <v>0.04160535149276257</v>
+      </c>
+      <c r="K238">
+        <v>0.008461261633783579</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <v>742</v>
+      </c>
+      <c r="D239">
+        <v>0.01552663173060864</v>
+      </c>
+      <c r="E239">
+        <v>0.2977359200594947</v>
+      </c>
+      <c r="F239">
+        <v>742</v>
+      </c>
+      <c r="G239">
+        <v>0.02185374102555215</v>
+      </c>
+      <c r="H239">
+        <v>0.1860324820736423</v>
+      </c>
+      <c r="I239">
+        <v>0.01086882664822042</v>
+      </c>
+      <c r="J239">
+        <v>0.04727587627712637</v>
+      </c>
+      <c r="K239">
+        <v>0.007836120668798685</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240">
+        <v>634</v>
+      </c>
+      <c r="D240">
+        <v>0.0007738611893728375</v>
+      </c>
+      <c r="E240">
+        <v>0.2319469440262765</v>
+      </c>
+      <c r="F240">
+        <v>634</v>
+      </c>
+      <c r="G240">
+        <v>0.01862126658670604</v>
+      </c>
+      <c r="H240">
+        <v>0.1449050102382898</v>
+      </c>
+      <c r="I240">
+        <v>0.0100397642236203</v>
+      </c>
+      <c r="J240">
+        <v>0.03168749995529652</v>
+      </c>
+      <c r="K240">
+        <v>0.00664745329413563</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C241">
+        <v>8658</v>
+      </c>
+      <c r="E241">
+        <v>1.698719188803807</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="A242" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>506</v>
+      </c>
+      <c r="D242">
+        <v>0.0004034052835777402</v>
+      </c>
+      <c r="E242">
+        <v>0.1900924009969458</v>
+      </c>
+      <c r="F242">
+        <v>506</v>
+      </c>
+      <c r="G242">
+        <v>0.01526097964961082</v>
+      </c>
+      <c r="H242">
+        <v>0.1182769583538175</v>
+      </c>
+      <c r="I242">
+        <v>0.00782220356632024</v>
+      </c>
+      <c r="J242">
+        <v>0.02675889758393168</v>
+      </c>
+      <c r="K242">
+        <v>0.005475808284245431</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C243">
+        <v>741</v>
+      </c>
+      <c r="D243">
+        <v>0.01455373235512525</v>
+      </c>
+      <c r="E243">
+        <v>0.2817585229640827</v>
+      </c>
+      <c r="F243">
+        <v>741</v>
+      </c>
+      <c r="G243">
+        <v>0.02126102487090975</v>
+      </c>
+      <c r="H243">
+        <v>0.1826623213710263</v>
+      </c>
+      <c r="I243">
+        <v>0.008681059116497636</v>
+      </c>
+      <c r="J243">
+        <v>0.03816998854745179</v>
+      </c>
+      <c r="K243">
+        <v>0.007663230295293033</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>591</v>
+      </c>
+      <c r="D244">
+        <v>0.0127891309093684</v>
+      </c>
+      <c r="E244">
+        <v>0.2354514459148049</v>
+      </c>
+      <c r="F244">
+        <v>591</v>
+      </c>
+      <c r="G244">
+        <v>0.01725519541651011</v>
+      </c>
+      <c r="H244">
+        <v>0.1475972792832181</v>
+      </c>
+      <c r="I244">
+        <v>0.0076355169294402</v>
+      </c>
+      <c r="J244">
+        <v>0.03822695056442171</v>
+      </c>
+      <c r="K244">
+        <v>0.00604138826020062</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245">
+        <v>506</v>
+      </c>
+      <c r="D245">
+        <v>0.0006669594440609217</v>
+      </c>
+      <c r="E245">
+        <v>0.1949451030232012</v>
+      </c>
+      <c r="F245">
+        <v>506</v>
+      </c>
+      <c r="G245">
+        <v>0.01564262097235769</v>
+      </c>
+      <c r="H245">
+        <v>0.1209429795853794</v>
+      </c>
+      <c r="I245">
+        <v>0.008691527298651636</v>
+      </c>
+      <c r="J245">
+        <v>0.02700018044561148</v>
+      </c>
+      <c r="K245">
+        <v>0.005633760476484895</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C246">
+        <v>8658</v>
+      </c>
+      <c r="E246">
+        <v>1.541896433802322</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
+      <c r="A247" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>484</v>
+      </c>
+      <c r="D247">
+        <v>0.0004019449697807431</v>
+      </c>
+      <c r="E247">
+        <v>0.1819125990150496</v>
+      </c>
+      <c r="F247">
+        <v>484</v>
+      </c>
+      <c r="G247">
+        <v>0.01476616866420954</v>
+      </c>
+      <c r="H247">
+        <v>0.1131886148359627</v>
+      </c>
+      <c r="I247">
+        <v>0.007367198239080608</v>
+      </c>
+      <c r="J247">
+        <v>0.02510033745784312</v>
+      </c>
+      <c r="K247">
+        <v>0.005329209379851818</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C248">
+        <v>729</v>
+      </c>
+      <c r="D248">
+        <v>0.01902157312724739</v>
+      </c>
+      <c r="E248">
+        <v>0.2997719660634175</v>
+      </c>
+      <c r="F248">
+        <v>729</v>
+      </c>
+      <c r="G248">
+        <v>0.02220389118883759</v>
+      </c>
+      <c r="H248">
+        <v>0.1940492468420416</v>
+      </c>
+      <c r="I248">
+        <v>0.01235323306173086</v>
+      </c>
+      <c r="J248">
+        <v>0.03891275404021144</v>
+      </c>
+      <c r="K248">
+        <v>0.007939037750475109</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249">
+        <v>526</v>
+      </c>
+      <c r="D249">
+        <v>0.01277786900755018</v>
+      </c>
+      <c r="E249">
+        <v>0.2215676620835438</v>
+      </c>
+      <c r="F249">
+        <v>526</v>
+      </c>
+      <c r="G249">
+        <v>0.01617912040092051</v>
+      </c>
+      <c r="H249">
+        <v>0.1380691344384104</v>
+      </c>
+      <c r="I249">
+        <v>0.007786658126860857</v>
+      </c>
+      <c r="J249">
+        <v>0.03599950333591551</v>
+      </c>
+      <c r="K249">
+        <v>0.005805363412946463</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250">
+        <v>484</v>
+      </c>
+      <c r="D250">
+        <v>0.0006403320003300905</v>
+      </c>
+      <c r="E250">
+        <v>0.1839381809113547</v>
+      </c>
+      <c r="F250">
+        <v>484</v>
+      </c>
+      <c r="G250">
+        <v>0.01485818135552108</v>
+      </c>
+      <c r="H250">
+        <v>0.1140834777615964</v>
+      </c>
+      <c r="I250">
+        <v>0.008079412044025958</v>
+      </c>
+      <c r="J250">
+        <v>0.02534855657722801</v>
+      </c>
+      <c r="K250">
+        <v>0.005366518395021558</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C251">
+        <v>8658</v>
+      </c>
+      <c r="E251">
+        <v>1.669487379025668</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
+      <c r="A252" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>585.22</v>
+      </c>
+      <c r="D252">
+        <v>0.0004923092480748892</v>
+      </c>
+      <c r="E252">
+        <v>0.2216071579302661</v>
+      </c>
+      <c r="F252">
+        <v>585.22</v>
+      </c>
+      <c r="G252">
+        <v>0.01789097625762224</v>
+      </c>
+      <c r="H252">
+        <v>0.1388768654013984</v>
+      </c>
+      <c r="I252">
+        <v>0.008503552437759935</v>
+      </c>
+      <c r="J252">
+        <v>0.03032737107248977</v>
+      </c>
+      <c r="K252">
+        <v>0.006423801688943059</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>758.48</v>
+      </c>
+      <c r="D253">
+        <v>0.01867921808734536</v>
+      </c>
+      <c r="E253">
+        <v>0.3144276092993096</v>
+      </c>
+      <c r="F253">
+        <v>758.48</v>
+      </c>
+      <c r="G253">
+        <v>0.02344636359717697</v>
+      </c>
+      <c r="H253">
+        <v>0.2043807038106024</v>
+      </c>
+      <c r="I253">
+        <v>0.01217489297967404</v>
+      </c>
+      <c r="J253">
+        <v>0.04073512627743184</v>
+      </c>
+      <c r="K253">
+        <v>0.008301770482212305</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>678.08</v>
+      </c>
+      <c r="D254">
+        <v>0.01549206321127713</v>
+      </c>
+      <c r="E254">
+        <v>0.285876707767602</v>
+      </c>
+      <c r="F254">
+        <v>678.08</v>
+      </c>
+      <c r="G254">
+        <v>0.02098163507180289</v>
+      </c>
+      <c r="H254">
+        <v>0.1797933672508225</v>
+      </c>
+      <c r="I254">
+        <v>0.009458252508193255</v>
+      </c>
+      <c r="J254">
+        <v>0.04531265693251044</v>
+      </c>
+      <c r="K254">
+        <v>0.007514072230551391</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255">
+        <v>585.22</v>
+      </c>
+      <c r="D255">
+        <v>0.0007591539435088634</v>
+      </c>
+      <c r="E255">
+        <v>0.2213906992296688</v>
+      </c>
+      <c r="F255">
+        <v>585.22</v>
+      </c>
+      <c r="G255">
+        <v>0.01784384768921882</v>
+      </c>
+      <c r="H255">
+        <v>0.1383710771775805</v>
+      </c>
+      <c r="I255">
+        <v>0.009153903785627335</v>
+      </c>
+      <c r="J255">
+        <v>0.03018624538555741</v>
+      </c>
+      <c r="K255">
+        <v>0.006388665810227394</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C256">
+        <v>8658</v>
+      </c>
+      <c r="E256">
+        <v>1.688337481836788</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="51">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
@@ -2514,6 +9874,46 @@
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="A182:A186"/>
+    <mergeCell ref="A187:A191"/>
+    <mergeCell ref="A192:A196"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="A202:A206"/>
+    <mergeCell ref="A207:A211"/>
+    <mergeCell ref="A212:A216"/>
+    <mergeCell ref="A217:A221"/>
+    <mergeCell ref="A222:A226"/>
+    <mergeCell ref="A227:A231"/>
+    <mergeCell ref="A232:A236"/>
+    <mergeCell ref="A237:A241"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="A247:A251"/>
+    <mergeCell ref="A252:A256"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/mazeprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/mazeprocessed_rand_results_test.xlsx
@@ -626,28 +626,28 @@
         <v>665</v>
       </c>
       <c r="D2">
-        <v>0.001083928858861327</v>
+        <v>0.001257564406841993</v>
       </c>
       <c r="E2">
-        <v>0.3900846320902929</v>
+        <v>0.5737204579636455</v>
       </c>
       <c r="F2">
         <v>665</v>
       </c>
       <c r="G2">
-        <v>0.02781120117288083</v>
+        <v>0.03989016404375434</v>
       </c>
       <c r="H2">
-        <v>0.1964104000944644</v>
+        <v>0.2555096605792642</v>
       </c>
       <c r="I2">
-        <v>0.04143796162679791</v>
+        <v>0.09472202695906162</v>
       </c>
       <c r="J2">
-        <v>0.08934111963026226</v>
+        <v>0.1415524398908019</v>
       </c>
       <c r="K2">
-        <v>0.008801897638477385</v>
+        <v>0.01031477889046073</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -659,28 +659,28 @@
         <v>709</v>
       </c>
       <c r="D3">
-        <v>0.08100795967038721</v>
+        <v>0.07872134773060679</v>
       </c>
       <c r="E3">
-        <v>0.542957432102412</v>
+        <v>0.5977131072431803</v>
       </c>
       <c r="F3">
         <v>709</v>
       </c>
       <c r="G3">
-        <v>0.03145664534531534</v>
+        <v>0.0345823522657156</v>
       </c>
       <c r="H3">
-        <v>0.3076364118605852</v>
+        <v>0.3188638077117503</v>
       </c>
       <c r="I3">
-        <v>0.03593161853495985</v>
+        <v>0.05538225639611483</v>
       </c>
       <c r="J3">
-        <v>0.1285572481574491</v>
+        <v>0.1505562500096858</v>
       </c>
       <c r="K3">
-        <v>0.009861191385425627</v>
+        <v>0.00933563569560647</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -689,31 +689,31 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="D4">
-        <v>0.08655098604504019</v>
+        <v>0.08191800210624933</v>
       </c>
       <c r="E4">
-        <v>0.5767764740157872</v>
+        <v>0.6067328019998968</v>
       </c>
       <c r="F4">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="G4">
-        <v>0.03238293284084648</v>
+        <v>0.03412511944770813</v>
       </c>
       <c r="H4">
-        <v>0.3231923327548429</v>
+        <v>0.3267448549158871</v>
       </c>
       <c r="I4">
-        <v>0.03788796637672931</v>
+        <v>0.05122113320976496</v>
       </c>
       <c r="J4">
-        <v>0.1412646358367056</v>
+        <v>0.1559512559324503</v>
       </c>
       <c r="K4">
-        <v>0.01057787402532995</v>
+        <v>0.009595633018761873</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -725,28 +725,28 @@
         <v>665</v>
       </c>
       <c r="D5">
-        <v>0.00159314984921366</v>
+        <v>0.001803758088499308</v>
       </c>
       <c r="E5">
-        <v>0.3974974560551345</v>
+        <v>0.5769381779246032</v>
       </c>
       <c r="F5">
         <v>665</v>
       </c>
       <c r="G5">
-        <v>0.02841957018245012</v>
+        <v>0.03891843976452947</v>
       </c>
       <c r="H5">
-        <v>0.20047741336748</v>
+        <v>0.2565065808594227</v>
       </c>
       <c r="I5">
-        <v>0.04370756715070456</v>
+        <v>0.09635335579514503</v>
       </c>
       <c r="J5">
-        <v>0.08961219678167254</v>
+        <v>0.1425050417892635</v>
       </c>
       <c r="K5">
-        <v>0.008798356866464019</v>
+        <v>0.01048250822350383</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -755,31 +755,31 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2395</v>
+        <v>2399</v>
       </c>
       <c r="D6">
-        <v>0.1852636624826118</v>
+        <v>0.1788086406886578</v>
       </c>
       <c r="E6">
-        <v>2.268734361045063</v>
+        <v>3.488423581700772</v>
       </c>
       <c r="F6">
-        <v>2395</v>
+        <v>2399</v>
       </c>
       <c r="G6">
-        <v>0.1018032399006188</v>
+        <v>0.1105686975643039</v>
       </c>
       <c r="H6">
-        <v>0.9397963611409068</v>
+        <v>0.9602491110563278</v>
       </c>
       <c r="I6">
-        <v>0.6988509934162721</v>
+        <v>1.979463193099946</v>
       </c>
       <c r="J6">
-        <v>0.3882711156038567</v>
+        <v>0.3030690466985106</v>
       </c>
       <c r="K6">
-        <v>0.04066426167264581</v>
+        <v>0.03880238952115178</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -791,7 +791,7 @@
         <v>33300</v>
       </c>
       <c r="E7">
-        <v>6.09867793682497</v>
+        <v>7.253541064914316</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -805,28 +805,28 @@
         <v>629</v>
       </c>
       <c r="D8">
-        <v>0.0008799282368272543</v>
+        <v>0.000702104065567255</v>
       </c>
       <c r="E8">
-        <v>0.4720981910359114</v>
+        <v>0.3880765549838543</v>
       </c>
       <c r="F8">
         <v>629</v>
       </c>
       <c r="G8">
-        <v>0.02850054553709924</v>
+        <v>0.0256541813723743</v>
       </c>
       <c r="H8">
-        <v>0.2250920303631574</v>
+        <v>0.1828547627665102</v>
       </c>
       <c r="I8">
-        <v>0.08288980065844953</v>
+        <v>0.05925528146326542</v>
       </c>
       <c r="J8">
-        <v>0.09855370270088315</v>
+        <v>0.09035487053915858</v>
       </c>
       <c r="K8">
-        <v>0.009234959725290537</v>
+        <v>0.007394487969577312</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -838,28 +838,28 @@
         <v>670</v>
       </c>
       <c r="D9">
-        <v>0.07747961161658168</v>
+        <v>0.05967893823981285</v>
       </c>
       <c r="E9">
-        <v>0.5483337859623134</v>
+        <v>0.4905664888210595</v>
       </c>
       <c r="F9">
         <v>670</v>
       </c>
       <c r="G9">
-        <v>0.03864663268905133</v>
+        <v>0.02645971858873963</v>
       </c>
       <c r="H9">
-        <v>0.2938022023299709</v>
+        <v>0.2611825908534229</v>
       </c>
       <c r="I9">
-        <v>0.04932793404441327</v>
+        <v>0.04930277541279793</v>
       </c>
       <c r="J9">
-        <v>0.1297812601551414</v>
+        <v>0.1213390715420246</v>
       </c>
       <c r="K9">
-        <v>0.009051055763848126</v>
+        <v>0.007955154869705439</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -868,31 +868,31 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="D10">
-        <v>0.07510595896746963</v>
+        <v>0.05921263713389635</v>
       </c>
       <c r="E10">
-        <v>0.5499684490496293</v>
+        <v>0.4920201976783574</v>
       </c>
       <c r="F10">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="G10">
-        <v>0.03041744185611606</v>
+        <v>0.02764697605744004</v>
       </c>
       <c r="H10">
-        <v>0.3000568306306377</v>
+        <v>0.2645076452754438</v>
       </c>
       <c r="I10">
-        <v>0.03487617720384151</v>
+        <v>0.04013616824522614</v>
       </c>
       <c r="J10">
-        <v>0.1453008510870859</v>
+        <v>0.1270410129800439</v>
       </c>
       <c r="K10">
-        <v>0.009825918823480606</v>
+        <v>0.008069343399256468</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -904,28 +904,28 @@
         <v>629</v>
       </c>
       <c r="D11">
-        <v>0.00121336686424911</v>
+        <v>0.001043336000293493</v>
       </c>
       <c r="E11">
-        <v>0.3317969080526382</v>
+        <v>0.388568548951298</v>
       </c>
       <c r="F11">
         <v>629</v>
       </c>
       <c r="G11">
-        <v>0.02348115516360849</v>
+        <v>0.02577080950140953</v>
       </c>
       <c r="H11">
-        <v>0.17224064480979</v>
+        <v>0.1810599220916629</v>
       </c>
       <c r="I11">
-        <v>0.03378438553772867</v>
+        <v>0.06152039766311646</v>
       </c>
       <c r="J11">
-        <v>0.07124300429131836</v>
+        <v>0.09039383241906762</v>
       </c>
       <c r="K11">
-        <v>0.007685109623707831</v>
+        <v>0.0074429283849895</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -937,28 +937,28 @@
         <v>2393</v>
       </c>
       <c r="D12">
-        <v>0.1404075018363073</v>
+        <v>0.148574466817081</v>
       </c>
       <c r="E12">
-        <v>2.052422839100473</v>
+        <v>3.894684855360538</v>
       </c>
       <c r="F12">
         <v>2393</v>
       </c>
       <c r="G12">
-        <v>0.09203265910036862</v>
+        <v>0.1143656615167856</v>
       </c>
       <c r="H12">
-        <v>0.8113538729958236</v>
+        <v>0.9383131782524288</v>
       </c>
       <c r="I12">
-        <v>0.715937354369089</v>
+        <v>2.40365110617131</v>
       </c>
       <c r="J12">
-        <v>0.3063547330675647</v>
+        <v>0.3003866509534419</v>
       </c>
       <c r="K12">
-        <v>0.03616214159410447</v>
+        <v>0.03914503287523985</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -970,7 +970,7 @@
         <v>33300</v>
       </c>
       <c r="E13">
-        <v>5.839134112116881</v>
+        <v>6.552316022105515</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -984,28 +984,28 @@
         <v>647</v>
       </c>
       <c r="D14">
-        <v>0.0009819285478442907</v>
+        <v>0.0009798342362046242</v>
       </c>
       <c r="E14">
-        <v>0.4310914115631022</v>
+        <v>0.4808985064737499</v>
       </c>
       <c r="F14">
         <v>647</v>
       </c>
       <c r="G14">
-        <v>0.02815587335499004</v>
+        <v>0.03277217270806432</v>
       </c>
       <c r="H14">
-        <v>0.2107512152288109</v>
+        <v>0.2191822116728872</v>
       </c>
       <c r="I14">
-        <v>0.06216388114262372</v>
+        <v>0.07698865421116352</v>
       </c>
       <c r="J14">
-        <v>0.0939474111655727</v>
+        <v>0.1159536552149802</v>
       </c>
       <c r="K14">
-        <v>0.009018428681883961</v>
+        <v>0.008854633430019021</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1017,28 +1017,28 @@
         <v>689.5</v>
       </c>
       <c r="D15">
-        <v>0.07924378564348444</v>
+        <v>0.06920014298520982</v>
       </c>
       <c r="E15">
-        <v>0.5456456090323627</v>
+        <v>0.5441397980321199</v>
       </c>
       <c r="F15">
         <v>689.5</v>
       </c>
       <c r="G15">
-        <v>0.03505163901718333</v>
+        <v>0.03052103542722762</v>
       </c>
       <c r="H15">
-        <v>0.3007193070952781</v>
+        <v>0.2900231992825866</v>
       </c>
       <c r="I15">
-        <v>0.04262977628968656</v>
+        <v>0.05234251590445638</v>
       </c>
       <c r="J15">
-        <v>0.1291692541562952</v>
+        <v>0.1359476607758552</v>
       </c>
       <c r="K15">
-        <v>0.009456123574636877</v>
+        <v>0.008645395282655954</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1047,31 +1047,31 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>732.5</v>
+        <v>726</v>
       </c>
       <c r="D16">
-        <v>0.08082847250625491</v>
+        <v>0.07056531962007284</v>
       </c>
       <c r="E16">
-        <v>0.5633724615327083</v>
+        <v>0.5493764998391271</v>
       </c>
       <c r="F16">
-        <v>732.5</v>
+        <v>726</v>
       </c>
       <c r="G16">
-        <v>0.03140018734848127</v>
+        <v>0.03088604775257409</v>
       </c>
       <c r="H16">
-        <v>0.3116245816927403</v>
+        <v>0.2956262500956655</v>
       </c>
       <c r="I16">
-        <v>0.03638207179028541</v>
+        <v>0.04567865072749555</v>
       </c>
       <c r="J16">
-        <v>0.1432827434618957</v>
+        <v>0.1414961344562471</v>
       </c>
       <c r="K16">
-        <v>0.01020189642440528</v>
+        <v>0.008832488209009171</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1083,28 +1083,28 @@
         <v>647</v>
       </c>
       <c r="D17">
-        <v>0.001403258356731385</v>
+        <v>0.0014235470443964</v>
       </c>
       <c r="E17">
-        <v>0.3646471820538864</v>
+        <v>0.4827533634379506</v>
       </c>
       <c r="F17">
         <v>647</v>
       </c>
       <c r="G17">
-        <v>0.0259503626730293</v>
+        <v>0.0323446246329695</v>
       </c>
       <c r="H17">
-        <v>0.186359029088635</v>
+        <v>0.2187832514755428</v>
       </c>
       <c r="I17">
-        <v>0.03874597634421661</v>
+        <v>0.07893687672913074</v>
       </c>
       <c r="J17">
-        <v>0.08042760053649545</v>
+        <v>0.1164494371041656</v>
       </c>
       <c r="K17">
-        <v>0.008241733245085925</v>
+        <v>0.008962718304246664</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1113,31 +1113,31 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>2394</v>
+        <v>2396</v>
       </c>
       <c r="D18">
-        <v>0.1628355821594596</v>
+        <v>0.1636915537528694</v>
       </c>
       <c r="E18">
-        <v>2.160578600072768</v>
+        <v>3.691554218530655</v>
       </c>
       <c r="F18">
-        <v>2394</v>
+        <v>2396</v>
       </c>
       <c r="G18">
-        <v>0.09691794950049371</v>
+        <v>0.1124671795405447</v>
       </c>
       <c r="H18">
-        <v>0.8755751170683652</v>
+        <v>0.9492811446543783</v>
       </c>
       <c r="I18">
-        <v>0.7073941738926806</v>
+        <v>2.191557149635628</v>
       </c>
       <c r="J18">
-        <v>0.3473129243357107</v>
+        <v>0.3017278488259763</v>
       </c>
       <c r="K18">
-        <v>0.03841320163337514</v>
+        <v>0.03897371119819582</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1149,7 +1149,7 @@
         <v>33300</v>
       </c>
       <c r="E19">
-        <v>5.968906024470925</v>
+        <v>6.902928543509915</v>
       </c>
     </row>
   </sheetData>

--- a/tests/advanced/randomized_tests/mazeprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/mazeprocessed_rand_results_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
@@ -32,7 +32,16 @@
     <t>S*-MM0</t>
   </si>
   <si>
-    <t>S*-unmerged</t>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
   </si>
   <si>
     <t>var</t>
@@ -50,7 +59,16 @@
     <t>S*-MM0ND</t>
   </si>
   <si>
-    <t>S*-unmergedND</t>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -81,9 +99,6 @@
   </si>
   <si>
     <t>run 0</t>
-  </si>
-  <si>
-    <t>run 1</t>
   </si>
   <si>
     <t>Average</t>
@@ -447,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,39 +505,57 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>271.808</v>
+        <v>270.496</v>
       </c>
       <c r="C2">
-        <v>271.808</v>
+        <v>270.496</v>
       </c>
       <c r="D2">
-        <v>271.808</v>
+        <v>270.496</v>
       </c>
       <c r="E2">
-        <v>271.808</v>
+        <v>270.496</v>
       </c>
       <c r="F2">
-        <v>271.808</v>
+        <v>270.496</v>
       </c>
       <c r="G2">
-        <v>271.808</v>
+        <v>270.496</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
+        <v>270.496</v>
+      </c>
+      <c r="I2">
+        <v>270.496</v>
+      </c>
+      <c r="J2">
+        <v>270.496</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="b">
@@ -531,45 +564,22 @@
       <c r="M2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>251.878</v>
-      </c>
-      <c r="C3">
-        <v>251.878</v>
-      </c>
-      <c r="D3">
-        <v>251.878</v>
-      </c>
-      <c r="E3">
-        <v>251.878</v>
-      </c>
-      <c r="F3">
-        <v>251.878</v>
-      </c>
-      <c r="G3">
-        <v>251.878</v>
-      </c>
-      <c r="H3">
+      <c r="N2" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="b">
+      <c r="O2" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="b">
+      <c r="P2" t="b">
         <v>0</v>
       </c>
-      <c r="K3" t="b">
+      <c r="Q2" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
-      <c r="M3" t="b">
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -588,66 +598,66 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D2">
-        <v>0.001257564406841993</v>
+        <v>0.002956422977149487</v>
       </c>
       <c r="E2">
-        <v>0.5737204579636455</v>
+        <v>0.4192828559316695</v>
       </c>
       <c r="F2">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="G2">
-        <v>0.03989016404375434</v>
+        <v>0.03663060395047069</v>
       </c>
       <c r="H2">
-        <v>0.2555096605792642</v>
+        <v>0.2144852154888213</v>
       </c>
       <c r="I2">
-        <v>0.09472202695906162</v>
+        <v>0.07103201141580939</v>
       </c>
       <c r="J2">
-        <v>0.1415524398908019</v>
+        <v>0.05145837739109993</v>
       </c>
       <c r="K2">
-        <v>0.01031477889046073</v>
+        <v>0.01794490171596408</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -656,31 +666,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="D3">
-        <v>0.07872134773060679</v>
+        <v>0.08199731819331646</v>
       </c>
       <c r="E3">
-        <v>0.5977131072431803</v>
+        <v>0.5647417129948735</v>
       </c>
       <c r="F3">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="G3">
-        <v>0.0345823522657156</v>
+        <v>0.03814417542889714</v>
       </c>
       <c r="H3">
-        <v>0.3188638077117503</v>
+        <v>0.3177446769550443</v>
       </c>
       <c r="I3">
-        <v>0.05538225639611483</v>
+        <v>0.06053107138723135</v>
       </c>
       <c r="J3">
-        <v>0.1505562500096858</v>
+        <v>0.09755039634183049</v>
       </c>
       <c r="K3">
-        <v>0.00933563569560647</v>
+        <v>0.02019267994910479</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -689,31 +699,31 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>750</v>
+        <v>620</v>
       </c>
       <c r="D4">
-        <v>0.08191800210624933</v>
+        <v>0.0681555955670774</v>
       </c>
       <c r="E4">
-        <v>0.6067328019998968</v>
+        <v>0.4793309890665114</v>
       </c>
       <c r="F4">
-        <v>750</v>
+        <v>620</v>
       </c>
       <c r="G4">
-        <v>0.03412511944770813</v>
+        <v>0.03401192184537649</v>
       </c>
       <c r="H4">
-        <v>0.3267448549158871</v>
+        <v>0.2670521130785346</v>
       </c>
       <c r="I4">
-        <v>0.05122113320976496</v>
+        <v>0.0502205821685493</v>
       </c>
       <c r="J4">
-        <v>0.1559512559324503</v>
+        <v>0.08632665686309338</v>
       </c>
       <c r="K4">
-        <v>0.009595633018761873</v>
+        <v>0.01661454886198044</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -722,31 +732,31 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D5">
-        <v>0.001803758088499308</v>
+        <v>0.001772271934896708</v>
       </c>
       <c r="E5">
-        <v>0.5769381779246032</v>
+        <v>0.4427729290910065</v>
       </c>
       <c r="F5">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="G5">
-        <v>0.03891843976452947</v>
+        <v>0.04055936727672815</v>
       </c>
       <c r="H5">
-        <v>0.2565065808594227</v>
+        <v>0.2242941749282181</v>
       </c>
       <c r="I5">
-        <v>0.09635335579514503</v>
+        <v>0.07491240976378322</v>
       </c>
       <c r="J5">
-        <v>0.1425050417892635</v>
+        <v>0.05413111904636025</v>
       </c>
       <c r="K5">
-        <v>0.01048250822350383</v>
+        <v>0.01937057869508862</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -755,408 +765,426 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2399</v>
+        <v>1950</v>
       </c>
       <c r="D6">
-        <v>0.1788086406886578</v>
+        <v>0.005769672337919474</v>
       </c>
       <c r="E6">
-        <v>3.488423581700772</v>
+        <v>1.415210830979049</v>
       </c>
       <c r="F6">
-        <v>2399</v>
+        <v>1950</v>
       </c>
       <c r="G6">
-        <v>0.1105686975643039</v>
+        <v>0.09484151471406221</v>
       </c>
       <c r="H6">
-        <v>0.9602491110563278</v>
+        <v>0.5603964230976999</v>
       </c>
       <c r="I6">
-        <v>1.979463193099946</v>
+        <v>0.5701635577715933</v>
       </c>
       <c r="J6">
-        <v>0.3030690466985106</v>
+        <v>0.05438367929309607</v>
       </c>
       <c r="K6">
-        <v>0.03880238952115178</v>
+        <v>0.05979041056707501</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>33300</v>
+        <v>1819</v>
+      </c>
+      <c r="D7">
+        <v>0.1308123781345785</v>
       </c>
       <c r="E7">
-        <v>7.253541064914316</v>
+        <v>1.487103268038481</v>
+      </c>
+      <c r="F7">
+        <v>1819</v>
+      </c>
+      <c r="G7">
+        <v>0.09201491670683026</v>
+      </c>
+      <c r="H7">
+        <v>0.6701455852016807</v>
+      </c>
+      <c r="I7">
+        <v>0.4526925073005259</v>
+      </c>
+      <c r="J7">
+        <v>0.1424911376088858</v>
+      </c>
+      <c r="K7">
+        <v>0.05763309635221958</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>629</v>
+        <v>1413</v>
       </c>
       <c r="D8">
-        <v>0.000702104065567255</v>
+        <v>0.1010411842726171</v>
       </c>
       <c r="E8">
-        <v>0.3880765549838543</v>
+        <v>1.1247075391002</v>
       </c>
       <c r="F8">
-        <v>629</v>
+        <v>1413</v>
       </c>
       <c r="G8">
-        <v>0.0256541813723743</v>
+        <v>0.0726292678155005</v>
       </c>
       <c r="H8">
-        <v>0.1828547627665102</v>
+        <v>0.5177717562764883</v>
       </c>
       <c r="I8">
-        <v>0.05925528146326542</v>
+        <v>0.3065723571926355</v>
       </c>
       <c r="J8">
-        <v>0.09035487053915858</v>
+        <v>0.1286666635423899</v>
       </c>
       <c r="K8">
-        <v>0.007394487969577312</v>
+        <v>0.04402244556695223</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>670</v>
+        <v>1950</v>
       </c>
       <c r="D9">
-        <v>0.05967893823981285</v>
+        <v>0.007076812908053398</v>
       </c>
       <c r="E9">
-        <v>0.4905664888210595</v>
+        <v>1.472084654960781</v>
       </c>
       <c r="F9">
-        <v>670</v>
+        <v>1950</v>
       </c>
       <c r="G9">
-        <v>0.02645971858873963</v>
+        <v>0.100663264747709</v>
       </c>
       <c r="H9">
-        <v>0.2611825908534229</v>
+        <v>0.573080484289676</v>
       </c>
       <c r="I9">
-        <v>0.04930277541279793</v>
+        <v>0.6032815179787576</v>
       </c>
       <c r="J9">
-        <v>0.1213390715420246</v>
+        <v>0.05679511511698365</v>
       </c>
       <c r="K9">
-        <v>0.007955154869705439</v>
+        <v>0.05919745704159141</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>702</v>
-      </c>
-      <c r="D10">
-        <v>0.05921263713389635</v>
+        <v>33300</v>
       </c>
       <c r="E10">
-        <v>0.4920201976783574</v>
-      </c>
-      <c r="F10">
-        <v>702</v>
-      </c>
-      <c r="G10">
-        <v>0.02764697605744004</v>
-      </c>
-      <c r="H10">
-        <v>0.2645076452754438</v>
-      </c>
-      <c r="I10">
-        <v>0.04013616824522614</v>
-      </c>
-      <c r="J10">
-        <v>0.1270410129800439</v>
-      </c>
-      <c r="K10">
-        <v>0.008069343399256468</v>
+        <v>6.630521262995899</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="D11">
-        <v>0.001043336000293493</v>
+        <v>0.002956422977149487</v>
       </c>
       <c r="E11">
-        <v>0.388568548951298</v>
+        <v>0.4192828559316695</v>
       </c>
       <c r="F11">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="G11">
-        <v>0.02577080950140953</v>
+        <v>0.03663060395047069</v>
       </c>
       <c r="H11">
-        <v>0.1810599220916629</v>
+        <v>0.2144852154888213</v>
       </c>
       <c r="I11">
-        <v>0.06152039766311646</v>
+        <v>0.07103201141580939</v>
       </c>
       <c r="J11">
-        <v>0.09039383241906762</v>
+        <v>0.05145837739109993</v>
       </c>
       <c r="K11">
-        <v>0.0074429283849895</v>
+        <v>0.01794490171596408</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2393</v>
+        <v>730</v>
       </c>
       <c r="D12">
-        <v>0.148574466817081</v>
+        <v>0.08199731819331646</v>
       </c>
       <c r="E12">
-        <v>3.894684855360538</v>
+        <v>0.5647417129948735</v>
       </c>
       <c r="F12">
-        <v>2393</v>
+        <v>730</v>
       </c>
       <c r="G12">
-        <v>0.1143656615167856</v>
+        <v>0.03814417542889714</v>
       </c>
       <c r="H12">
-        <v>0.9383131782524288</v>
+        <v>0.3177446769550443</v>
       </c>
       <c r="I12">
-        <v>2.40365110617131</v>
+        <v>0.06053107138723135</v>
       </c>
       <c r="J12">
-        <v>0.3003866509534419</v>
+        <v>0.09755039634183049</v>
       </c>
       <c r="K12">
-        <v>0.03914503287523985</v>
+        <v>0.02019267994910479</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>33300</v>
+        <v>620</v>
+      </c>
+      <c r="D13">
+        <v>0.0681555955670774</v>
       </c>
       <c r="E13">
-        <v>6.552316022105515</v>
+        <v>0.4793309890665114</v>
+      </c>
+      <c r="F13">
+        <v>620</v>
+      </c>
+      <c r="G13">
+        <v>0.03401192184537649</v>
+      </c>
+      <c r="H13">
+        <v>0.2670521130785346</v>
+      </c>
+      <c r="I13">
+        <v>0.0502205821685493</v>
+      </c>
+      <c r="J13">
+        <v>0.08632665686309338</v>
+      </c>
+      <c r="K13">
+        <v>0.01661454886198044</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="D14">
-        <v>0.0009798342362046242</v>
+        <v>0.001772271934896708</v>
       </c>
       <c r="E14">
-        <v>0.4808985064737499</v>
+        <v>0.4427729290910065</v>
       </c>
       <c r="F14">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="G14">
-        <v>0.03277217270806432</v>
+        <v>0.04055936727672815</v>
       </c>
       <c r="H14">
-        <v>0.2191822116728872</v>
+        <v>0.2242941749282181</v>
       </c>
       <c r="I14">
-        <v>0.07698865421116352</v>
+        <v>0.07491240976378322</v>
       </c>
       <c r="J14">
-        <v>0.1159536552149802</v>
+        <v>0.05413111904636025</v>
       </c>
       <c r="K14">
-        <v>0.008854633430019021</v>
+        <v>0.01937057869508862</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>689.5</v>
+        <v>1950</v>
       </c>
       <c r="D15">
-        <v>0.06920014298520982</v>
+        <v>0.005769672337919474</v>
       </c>
       <c r="E15">
-        <v>0.5441397980321199</v>
+        <v>1.415210830979049</v>
       </c>
       <c r="F15">
-        <v>689.5</v>
+        <v>1950</v>
       </c>
       <c r="G15">
-        <v>0.03052103542722762</v>
+        <v>0.09484151471406221</v>
       </c>
       <c r="H15">
-        <v>0.2900231992825866</v>
+        <v>0.5603964230976999</v>
       </c>
       <c r="I15">
-        <v>0.05234251590445638</v>
+        <v>0.5701635577715933</v>
       </c>
       <c r="J15">
-        <v>0.1359476607758552</v>
+        <v>0.05438367929309607</v>
       </c>
       <c r="K15">
-        <v>0.008645395282655954</v>
+        <v>0.05979041056707501</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>726</v>
+        <v>1819</v>
       </c>
       <c r="D16">
-        <v>0.07056531962007284</v>
+        <v>0.1308123781345785</v>
       </c>
       <c r="E16">
-        <v>0.5493764998391271</v>
+        <v>1.487103268038481</v>
       </c>
       <c r="F16">
-        <v>726</v>
+        <v>1819</v>
       </c>
       <c r="G16">
-        <v>0.03088604775257409</v>
+        <v>0.09201491670683026</v>
       </c>
       <c r="H16">
-        <v>0.2956262500956655</v>
+        <v>0.6701455852016807</v>
       </c>
       <c r="I16">
-        <v>0.04567865072749555</v>
+        <v>0.4526925073005259</v>
       </c>
       <c r="J16">
-        <v>0.1414961344562471</v>
+        <v>0.1424911376088858</v>
       </c>
       <c r="K16">
-        <v>0.008832488209009171</v>
+        <v>0.05763309635221958</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>647</v>
+        <v>1413</v>
       </c>
       <c r="D17">
-        <v>0.0014235470443964</v>
+        <v>0.1010411842726171</v>
       </c>
       <c r="E17">
-        <v>0.4827533634379506</v>
+        <v>1.1247075391002</v>
       </c>
       <c r="F17">
-        <v>647</v>
+        <v>1413</v>
       </c>
       <c r="G17">
-        <v>0.0323446246329695</v>
+        <v>0.0726292678155005</v>
       </c>
       <c r="H17">
-        <v>0.2187832514755428</v>
+        <v>0.5177717562764883</v>
       </c>
       <c r="I17">
-        <v>0.07893687672913074</v>
+        <v>0.3065723571926355</v>
       </c>
       <c r="J17">
-        <v>0.1164494371041656</v>
+        <v>0.1286666635423899</v>
       </c>
       <c r="K17">
-        <v>0.008962718304246664</v>
+        <v>0.04402244556695223</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>2396</v>
+        <v>1950</v>
       </c>
       <c r="D18">
-        <v>0.1636915537528694</v>
+        <v>0.007076812908053398</v>
       </c>
       <c r="E18">
-        <v>3.691554218530655</v>
+        <v>1.472084654960781</v>
       </c>
       <c r="F18">
-        <v>2396</v>
+        <v>1950</v>
       </c>
       <c r="G18">
-        <v>0.1124671795405447</v>
+        <v>0.100663264747709</v>
       </c>
       <c r="H18">
-        <v>0.9492811446543783</v>
+        <v>0.573080484289676</v>
       </c>
       <c r="I18">
-        <v>2.191557149635628</v>
+        <v>0.6032815179787576</v>
       </c>
       <c r="J18">
-        <v>0.3017278488259763</v>
+        <v>0.05679511511698365</v>
       </c>
       <c r="K18">
-        <v>0.03897371119819582</v>
+        <v>0.05919745704159141</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>33300</v>
       </c>
       <c r="E19">
-        <v>6.902928543509915</v>
+        <v>6.630521262995899</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
